--- a/data/hotels_by_city/Houston/Houston_shard_90.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_90.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56761-d106252-Reviews-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Fairfield-Inn-Suites-By-Marriott-Texas-City.h40479.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1533 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r573745523-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>106252</t>
+  </si>
+  <si>
+    <t>573745523</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>A Nice Hotel. My Room was very clean. It had a bedroom area and a living room area. Which I felt made the room a little dark and not seem as big. Good wifi, Friendly Staff, and a Nice breakfast.We arrived on Tuesday and they informed us that they were booked up for Saturday. So, We had to look for another hotel but I would recommend this hotel over the others in the area m</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r565846214-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>565846214</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for two days and the location was great. The rooms were clean, the breakfast was great and there were different options on some items both days. The waffle maker was a hit with our kids. We didn't use the pool because the first night it was crowded and the second night the heater wasn't working in it and I didn't want the kids in cold water. The staff was great as well and there is an Olivr and Gringo's Mexican Kitchen around the corner. Overall we enjoyed our stay and will stay again. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r561026005-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>561026005</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Great overnight stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before hopping on our cruise. Hotel is clean, staff was friendly, room was nice. Things look nice cosmetically. Indoor pool seemed hopping, although we didn’t use it. The breakfast was standard hotel breakfast fare, we enjoyed it. One thing that was a bit of a turn off was that when we arrived back at the hotel after dinner, a group of about 4 people were standing directly outside the front door smoking, including the lady working the front desk, so we were forced to walk through their nasty cloud of second hand smoke to get into the property so a designated smoking area away from the front door would be nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Myisha M, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before hopping on our cruise. Hotel is clean, staff was friendly, room was nice. Things look nice cosmetically. Indoor pool seemed hopping, although we didn’t use it. The breakfast was standard hotel breakfast fare, we enjoyed it. One thing that was a bit of a turn off was that when we arrived back at the hotel after dinner, a group of about 4 people were standing directly outside the front door smoking, including the lady working the front desk, so we were forced to walk through their nasty cloud of second hand smoke to get into the property so a designated smoking area away from the front door would be nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r506832428-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>506832428</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Great Stay, Great Price</t>
+  </si>
+  <si>
+    <t>Lovely hotel- great breakfast, super comfy beds, good-sized rooms, and wonderfully attentive staff. Perfect for day trips to Galveston, for a much more reasonable price than staying on the island itself.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r499286981-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>499286981</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best hotel in Texas City </t>
+  </si>
+  <si>
+    <t>This is a great hotel.  If you are visiting the outlet malls or Galveston, this is a great place to stay.  It's near the mall and bucees. Highly recommended all around for its great service and great rooms.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r499166516-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>499166516</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>So, I must say, this hotel had some pro's, but mostly con's. The staff was friendly upon check in, the hotel was clean and in a convenient enough location, but that's about it. 
+Pool - The hotel advertised a hot tub, there was none, and this had to be the smallest pool we had ever seen but, with a kid excited to swim, we made due. Atleast for the 1 night out of 3 we were able to enjoy the pool, the other 2 nights the mosquitos were so bad in the pool area that we weren't able to even enter. There were other guests complaining about them as well. 
+Breakfast - There is 1 waffle maker, we waited atleast 30 minutes for a waffle, the omlets were gone, the ham was tough and dry once we took it out of the pan of water it was laying in, the coffee was decent and so were the bagels and cereal. 
+The room - the place with the most complaints. So, the curtains are sheer, which means if you plan to sleep in, it's not going to happen. At night, the light shines through and in the morning here comes the sun. The walls are paper thin and so are the ceilings, get a room in the 3rd floor. Sounded like sumo wrestlers all night. On day 2, our toilet overflowed and spilled yucky, germy toilet juice all over the floor....So, I must say, this hotel had some pro's, but mostly con's. The staff was friendly upon check in, the hotel was clean and in a convenient enough location, but that's about it. Pool - The hotel advertised a hot tub, there was none, and this had to be the smallest pool we had ever seen but, with a kid excited to swim, we made due. Atleast for the 1 night out of 3 we were able to enjoy the pool, the other 2 nights the mosquitos were so bad in the pool area that we weren't able to even enter. There were other guests complaining about them as well. Breakfast - There is 1 waffle maker, we waited atleast 30 minutes for a waffle, the omlets were gone, the ham was tough and dry once we took it out of the pan of water it was laying in, the coffee was decent and so were the bagels and cereal. The room - the place with the most complaints. So, the curtains are sheer, which means if you plan to sleep in, it's not going to happen. At night, the light shines through and in the morning here comes the sun. The walls are paper thin and so are the ceilings, get a room in the 3rd floor. Sounded like sumo wrestlers all night. On day 2, our toilet overflowed and spilled yucky, germy toilet juice all over the floor. The "maintenance guy" claims its because a tag from a t-shirt was in the toilet (questionable emoji) I question how well they actually cleaned our room and bathroom that day because there was still hair on the floor in the bathroom and the bed was not made. There was a note from Heidi who "cleaned" our room stating she didn't make the bed because our daughter's sleeping bag was on it when I know that I folded it and placed it on top of her suitcase. So that lets me know she either put it there to not make the bed, or our things were gone through. She also left the empty pizza box in the room and the dirty paper cup on the dresser. We always clean up prior to having our room serviced so the things that needed to be thrown away were obvious.  Our backs were sore from how uncomfortable the bed was for us and our 7 year old. I guess I expected more from a Marriott. I mean, if you're looking for a quick 1 night spot then it's the perfect spot. But anything more, I would avoid.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>So, I must say, this hotel had some pro's, but mostly con's. The staff was friendly upon check in, the hotel was clean and in a convenient enough location, but that's about it. 
+Pool - The hotel advertised a hot tub, there was none, and this had to be the smallest pool we had ever seen but, with a kid excited to swim, we made due. Atleast for the 1 night out of 3 we were able to enjoy the pool, the other 2 nights the mosquitos were so bad in the pool area that we weren't able to even enter. There were other guests complaining about them as well. 
+Breakfast - There is 1 waffle maker, we waited atleast 30 minutes for a waffle, the omlets were gone, the ham was tough and dry once we took it out of the pan of water it was laying in, the coffee was decent and so were the bagels and cereal. 
+The room - the place with the most complaints. So, the curtains are sheer, which means if you plan to sleep in, it's not going to happen. At night, the light shines through and in the morning here comes the sun. The walls are paper thin and so are the ceilings, get a room in the 3rd floor. Sounded like sumo wrestlers all night. On day 2, our toilet overflowed and spilled yucky, germy toilet juice all over the floor....So, I must say, this hotel had some pro's, but mostly con's. The staff was friendly upon check in, the hotel was clean and in a convenient enough location, but that's about it. Pool - The hotel advertised a hot tub, there was none, and this had to be the smallest pool we had ever seen but, with a kid excited to swim, we made due. Atleast for the 1 night out of 3 we were able to enjoy the pool, the other 2 nights the mosquitos were so bad in the pool area that we weren't able to even enter. There were other guests complaining about them as well. Breakfast - There is 1 waffle maker, we waited atleast 30 minutes for a waffle, the omlets were gone, the ham was tough and dry once we took it out of the pan of water it was laying in, the coffee was decent and so were the bagels and cereal. The room - the place with the most complaints. So, the curtains are sheer, which means if you plan to sleep in, it's not going to happen. At night, the light shines through and in the morning here comes the sun. The walls are paper thin and so are the ceilings, get a room in the 3rd floor. Sounded like sumo wrestlers all night. On day 2, our toilet overflowed and spilled yucky, germy toilet juice all over the floor. The "maintenance guy" claims its because a tag from a t-shirt was in the toilet (questionable emoji) I question how well they actually cleaned our room and bathroom that day because there was still hair on the floor in the bathroom and the bed was not made. There was a note from Heidi who "cleaned" our room stating she didn't make the bed because our daughter's sleeping bag was on it when I know that I folded it and placed it on top of her suitcase. So that lets me know she either put it there to not make the bed, or our things were gone through. She also left the empty pizza box in the room and the dirty paper cup on the dresser. We always clean up prior to having our room serviced so the things that needed to be thrown away were obvious.  Our backs were sore from how uncomfortable the bed was for us and our 7 year old. I guess I expected more from a Marriott. I mean, if you're looking for a quick 1 night spot then it's the perfect spot. But anything more, I would avoid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r489881291-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>489881291</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Such a nice place and close to Galveston </t>
+  </si>
+  <si>
+    <t>We really enjoyed our time here! The staff was so friendly and made you feel like they knew you. The hotel room were nice and clean. The hotel was very much updated. Good amenities. Definitely stay again when I'm heading to Galveston. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>We really enjoyed our time here! The staff was so friendly and made you feel like they knew you. The hotel room were nice and clean. The hotel was very much updated. Good amenities. Definitely stay again when I'm heading to Galveston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r482744791-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>482744791</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>One night while we waited for our cruise</t>
+  </si>
+  <si>
+    <t>We stayed here a night while we waited for our cruise the next day.  Everything was around us. We had mexican food at gringo's and enjoyed a movie at the cinema basically all in the same property. I can't remember much about the hotel. Good stay. Free breakfast in the morning. Did it's job!! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here a night while we waited for our cruise the next day.  Everything was around us. We had mexican food at gringo's and enjoyed a movie at the cinema basically all in the same property. I can't remember much about the hotel. Good stay. Free breakfast in the morning. Did it's job!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r480233375-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>480233375</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Atttractive room and property</t>
+  </si>
+  <si>
+    <t>A friend and I stayed in the Fairfield Marriott Texas City. The motel and ground were clean, attractive and well maintained. The room was clean, lovely and the bed was comfortable. The breakfast selection was diverse and tasty. The property was quiet and the atmosphere was relaxed. The staff was pleasant '. We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>A friend and I stayed in the Fairfield Marriott Texas City. The motel and ground were clean, attractive and well maintained. The room was clean, lovely and the bed was comfortable. The breakfast selection was diverse and tasty. The property was quiet and the atmosphere was relaxed. The staff was pleasant '. We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r469320641-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>469320641</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>good hotel</t>
+  </si>
+  <si>
+    <t>stayed here after a trip to washington dc,, the  room was clean, the staff was extremely nice, the bed was comfortable and the breakfast was good, the staff stayed at the breakfast making sure nothing ran outMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>stayed here after a trip to washington dc,, the  room was clean, the staff was extremely nice, the bed was comfortable and the breakfast was good, the staff stayed at the breakfast making sure nothing ran outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r465665806-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>465665806</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Bad Service</t>
+  </si>
+  <si>
+    <t>We pre booked and paid for a room for 3 adults at this hotel. When we arrived we asked for a second room and happily paid for this. BUT this hotel charged us twice for a second room. When I realized this I went down to the front desk and showed them how they had charged me twice. The person said she would have to ask the manager in the morning to reverse 1 of the payments. In the morning before we left I asked again about it and was told it would be done that day. Today 18 days later after several calls to my  credit card company and to the my company of this hotel brand and to the hotel themselves ( once ) I finally have my money returned to my card. This was a very stressful time specially since we left USA and returned to our own country and now have USD which we couldn't use. Yes the hotel is clean with good size rooms and the staff were nice to us while we were there BUT taking 18 days to return my money which was their mistake in the first place is not good. Watch your credit cards if you stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>We pre booked and paid for a room for 3 adults at this hotel. When we arrived we asked for a second room and happily paid for this. BUT this hotel charged us twice for a second room. When I realized this I went down to the front desk and showed them how they had charged me twice. The person said she would have to ask the manager in the morning to reverse 1 of the payments. In the morning before we left I asked again about it and was told it would be done that day. Today 18 days later after several calls to my  credit card company and to the my company of this hotel brand and to the hotel themselves ( once ) I finally have my money returned to my card. This was a very stressful time specially since we left USA and returned to our own country and now have USD which we couldn't use. Yes the hotel is clean with good size rooms and the staff were nice to us while we were there BUT taking 18 days to return my money which was their mistake in the first place is not good. Watch your credit cards if you stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r459787301-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>459787301</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>Very conveniently located for an overnight stay before boarding a cruise ship in Galveston. Pricing is better than on the island with good access to any last minute purchases. Hotel is well maintained and representative of chains in the price range. What makes this location really stand out is the great staff! They could not be more friendly and welcoming! Questions are quickly answered, small issues dealt with, and whole time the goal is to make sure the customer has the best possible experience. Definitely planning another stay the next time we cruise from Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Very conveniently located for an overnight stay before boarding a cruise ship in Galveston. Pricing is better than on the island with good access to any last minute purchases. Hotel is well maintained and representative of chains in the price range. What makes this location really stand out is the great staff! They could not be more friendly and welcoming! Questions are quickly answered, small issues dealt with, and whole time the goal is to make sure the customer has the best possible experience. Definitely planning another stay the next time we cruise from Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r438193555-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>438193555</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>This was a very pleasant hotel experience. A little mold (?) in the shower but other than that very nice hotel. Pool looked really inviting. Close to lots of places to eat. Pretty good breakfast. Very nice employees.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r428835099-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>428835099</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good choice! </t>
+  </si>
+  <si>
+    <t>Great stay with my wife, just passing through on our way to Virginia. Jakob in front desk gave a great service, he really did his best to put a smile in our face at first arrival after a long drive. The rooms are nice and they don't have a problem with running hot water. The beds are comfy although the pillows might be a bit rough if you like something soft to lay your head on. The only downside is the location since the mall beside the hotel is all closed. So if you don't have a quick way to move, you may have some trouble to get some food in your stomach as quick as possible. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Great stay with my wife, just passing through on our way to Virginia. Jakob in front desk gave a great service, he really did his best to put a smile in our face at first arrival after a long drive. The rooms are nice and they don't have a problem with running hot water. The beds are comfy although the pillows might be a bit rough if you like something soft to lay your head on. The only downside is the location since the mall beside the hotel is all closed. So if you don't have a quick way to move, you may have some trouble to get some food in your stomach as quick as possible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r425140662-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>425140662</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I booked a stay at this hotel through a website, it was messed up, Tyler, manager on location, took care of it quickly, got me a better room, and I loved it. It was so close to Galveston. I had a great vacation thank you very much!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r416606262-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>416606262</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Hotel with great staff</t>
+  </si>
+  <si>
+    <t>Stayed here one night on the way to Galveston and a Cruise. Hotel is located close to the highway that passing by and also next door to car rental if you need that. Breakfast could have been better there was  no sausage with the scrambled eggs, only some sausagesauce that didn´t taste at all. Staff was really nice and helped us to arrange transportation to GalvestonMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here one night on the way to Galveston and a Cruise. Hotel is located close to the highway that passing by and also next door to car rental if you need that. Breakfast could have been better there was  no sausage with the scrambled eggs, only some sausagesauce that didn´t taste at all. Staff was really nice and helped us to arrange transportation to GalvestonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r410529411-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>410529411</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while fishing the gulf for three nights.  Overall good experience.  Had an issue with AC unit in one of the rooms late at night and the night staff moved us to another room without question.  The value for the rooms was really good. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded August 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while fishing the gulf for three nights.  Overall good experience.  Had an issue with AC unit in one of the rooms late at night and the night staff moved us to another room without question.  The value for the rooms was really good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r401519197-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>401519197</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Good location, pleasant stay</t>
+  </si>
+  <si>
+    <t>This is a standard Fairfield Inn. The staff was quite pleasant when we arrived on a broiling-hot Texas afternoon. The rooms are comfortable. Soap and shampoo is in the room and a variety of other amenities are at the front desk on request. There also is a tiny "shopping mart" with a few microwaveable food items and other necessities. Since there is a big-box store within a mile, I would suggest you go there first. The indoor pool was fantastic! Clean and very comfortable on a hot day. The breakfast was standard serve-yourself with waffles, cereals, etc. The eggs at any of these business-class hotels are not that great, but there was enough other items to satisfy me. My traveling companion liked the waffle iron was in the shape of Texas. The business center is right across from the front desk. The lobby and breakfast area were ice-cold. There is a restaurant right next door, but it appears to be closed. There are plenty of other eating options in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This is a standard Fairfield Inn. The staff was quite pleasant when we arrived on a broiling-hot Texas afternoon. The rooms are comfortable. Soap and shampoo is in the room and a variety of other amenities are at the front desk on request. There also is a tiny "shopping mart" with a few microwaveable food items and other necessities. Since there is a big-box store within a mile, I would suggest you go there first. The indoor pool was fantastic! Clean and very comfortable on a hot day. The breakfast was standard serve-yourself with waffles, cereals, etc. The eggs at any of these business-class hotels are not that great, but there was enough other items to satisfy me. My traveling companion liked the waffle iron was in the shape of Texas. The business center is right across from the front desk. The lobby and breakfast area were ice-cold. There is a restaurant right next door, but it appears to be closed. There are plenty of other eating options in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r375270552-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>375270552</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family trip </t>
+  </si>
+  <si>
+    <t>Beds are comfortable. I booked for 5, I would have appreciated extra bath towels in the rooms. Price was fair, and good location. Kids like the indoor pool. Easily accessible from hwy and near plenty of restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Beds are comfortable. I booked for 5, I would have appreciated extra bath towels in the rooms. Price was fair, and good location. Kids like the indoor pool. Easily accessible from hwy and near plenty of restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r364975444-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>364975444</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Too expensive for what you get</t>
+  </si>
+  <si>
+    <t>We paid $159 and expected a nicer Marriott property. It was very basic and quite out-dated. The breakfast area was under construction, so breakfast was served in guestrooms set up with tables. Even the nicest breakfast area can't elevate this to being worth $159. The lobby area is tiny, the hallways are narrow and musty-smelling, the pool is small, there is only 1 ice machine, and there is nowhere to sit outside. Quite disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Adam M, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>We paid $159 and expected a nicer Marriott property. It was very basic and quite out-dated. The breakfast area was under construction, so breakfast was served in guestrooms set up with tables. Even the nicest breakfast area can't elevate this to being worth $159. The lobby area is tiny, the hallways are narrow and musty-smelling, the pool is small, there is only 1 ice machine, and there is nowhere to sit outside. Quite disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r364688018-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>364688018</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under construction </t>
+  </si>
+  <si>
+    <t>We arrived at this Fairfield to a near empty mall parking lot (next door), lots of signs of construction at the hotel, and more than a few windows open (never a good sign). The hotel lobby in disarray, but Crystal at front desk was a welcome smiling face. All rooms that are used have been renovated and the breakfast bar under construction. It will probably be fine but glad we used points for a free night stay before our cruise. MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam M, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>We arrived at this Fairfield to a near empty mall parking lot (next door), lots of signs of construction at the hotel, and more than a few windows open (never a good sign). The hotel lobby in disarray, but Crystal at front desk was a welcome smiling face. All rooms that are used have been renovated and the breakfast bar under construction. It will probably be fine but glad we used points for a free night stay before our cruise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r352182875-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>352182875</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Excellent Staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were on our way through for a cruise of of Galveston.  The hotel is remodeling and we got a newer room which was nice.  The pool was freezing cold and the hot tube was dirty.  I loved the location because, it was across the street from the rental car agency and it's right off the freeway.  I would stay here again.  This hotel has great people at the counter.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r350035685-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>350035685</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>GREAT STAFF!</t>
+  </si>
+  <si>
+    <t>Really nice staff. Nice hotel. We were upgraded to a suite because of some ongoing construction. We could not have been happier. The suite was really nice. Comfy sofa and bed! Room was very clean. Internet service was fast. Breakfast could have been better, however, there was a large group of people there at one time with a tour group so things had to be restocked. We were there as they were being restocked. But they did make every effort to restock quickly. The hotel is located at the edge of a mall parking lot. It was very quiet. We enjoyed a good night's sleep here.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r343209743-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>343209743</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Front desk staff was outstanding</t>
+  </si>
+  <si>
+    <t>We had a double room for 4 + a baby.  The lady at the front desk was wonderful when we checked in, our room was very clean and comfortable.  The beds were comfortable and enjoyed our breakfast.  We were there only over night on our way to a cruise.  The check out morning we were notified that the cruise ship was delayed and when I went to ask for late check out, the lady at the front desk  said to stay as long as we needed as she did not want us to be out in the weather with the baby.  This kindness is one of the main reason  I keep staying at this hotel, the staff is outstanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We had a double room for 4 + a baby.  The lady at the front desk was wonderful when we checked in, our room was very clean and comfortable.  The beds were comfortable and enjoyed our breakfast.  We were there only over night on our way to a cruise.  The check out morning we were notified that the cruise ship was delayed and when I went to ask for late check out, the lady at the front desk  said to stay as long as we needed as she did not want us to be out in the weather with the baby.  This kindness is one of the main reason  I keep staying at this hotel, the staff is outstanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r331473027-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>331473027</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Beyond Outstanding!</t>
+  </si>
+  <si>
+    <t>I had occasion to stay in the Fairfield Inn in Texas City while attending a funeral.  We had left home early that morning and needed to change into our "funeral clothes".  Although it was before check-in time, they were most accommodating.  Erica Nunn, at the front desk, was kind, friendly and is certainly the kind of employee every company would hope to employ.  Tyler, who I believe might be the manager, was another true find.  The property was undergoing updating.  Out sink was not working but it was fixed immediately after reporting it.  The cleaning staff was very helpful when I asked for directions around town.  Always had smiles on their faces and did everything they could to make our stay a pleasant one.  I would stay there again in a heartbeat.  Good customer service is the key to any successful business.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I had occasion to stay in the Fairfield Inn in Texas City while attending a funeral.  We had left home early that morning and needed to change into our "funeral clothes".  Although it was before check-in time, they were most accommodating.  Erica Nunn, at the front desk, was kind, friendly and is certainly the kind of employee every company would hope to employ.  Tyler, who I believe might be the manager, was another true find.  The property was undergoing updating.  Out sink was not working but it was fixed immediately after reporting it.  The cleaning staff was very helpful when I asked for directions around town.  Always had smiles on their faces and did everything they could to make our stay a pleasant one.  I would stay there again in a heartbeat.  Good customer service is the key to any successful business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r329530135-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>329530135</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Hoboterp</t>
+  </si>
+  <si>
+    <t>This year I have 76 days in Marriott hotels in half a dozen states . This hotel was by far the most outdated and dirty of any of the stays.  Do yourself a favor and find a different place to stay . Its a great location ,  but just a poor hotel .MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>This year I have 76 days in Marriott hotels in half a dozen states . This hotel was by far the most outdated and dirty of any of the stays.  Do yourself a favor and find a different place to stay . Its a great location ,  but just a poor hotel .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r324291184-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>324291184</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>The hotel is clean. Located next to what used to be a mall, now is closed, so the area feels not secure. The good thing about this hotel, is located close to the new Galveston / Houston Tanger Outlets.Also the hotel needs some automatic doors.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is clean. Located next to what used to be a mall, now is closed, so the area feels not secure. The good thing about this hotel, is located close to the new Galveston / Houston Tanger Outlets.Also the hotel needs some automatic doors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r305385928-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>305385928</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>The Service Makes the Stay!!!!</t>
+  </si>
+  <si>
+    <t>The rooms were clean, the breakfast was good... but I would have stayed in a cardboard box if it meant this staff was working there. They were AMAZING!!!!! I was there for a family funeral, and they were kind, thoughtful, generous... they allowed me to check in three hours early, they knew me by name every time I passed the front desk, the always greeted me with a smile... it was really obvious that they loved their job and took pride in their hotel. If I have to return to the Houston/Galveston area in the future, THIS IS WHERE I WILL STAY. And it's where you should stay, too!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r305296964-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>305296964</t>
+  </si>
+  <si>
+    <t>Good for what it is...</t>
+  </si>
+  <si>
+    <t>I stayed here recently for one night on business it’s a basic needs no frills hotel with no onsite restaurant or lounge but good for what it is. Very clean with a friendly staff, property is showing its age but well managed. See my pros and cons below:Pros - Clean basic needs property with friendly staff, easy fast check in and out, easy freeway access in both directions. Good quality bed and linens, several food options close by. (Mostly fast food) free parking and free internet, Free but basic continental breakfast offered each morning.Cons - Older property, clearly dated inside and out. No ice or vending on 2nd and 3rd floors, you must take the elevator down to the first floor for ice which is quite slow during busier times, they have a tiny indoor pool that is crammed with kids, impossible to relax. I much prefer and outdoor pool but that's just a personnel preference.I would recommend this hotel as a safe clean place to spend the night on business, a little too far from Galveston to be considered a home base if that were your vacation destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here recently for one night on business it’s a basic needs no frills hotel with no onsite restaurant or lounge but good for what it is. Very clean with a friendly staff, property is showing its age but well managed. See my pros and cons below:Pros - Clean basic needs property with friendly staff, easy fast check in and out, easy freeway access in both directions. Good quality bed and linens, several food options close by. (Mostly fast food) free parking and free internet, Free but basic continental breakfast offered each morning.Cons - Older property, clearly dated inside and out. No ice or vending on 2nd and 3rd floors, you must take the elevator down to the first floor for ice which is quite slow during busier times, they have a tiny indoor pool that is crammed with kids, impossible to relax. I much prefer and outdoor pool but that's just a personnel preference.I would recommend this hotel as a safe clean place to spend the night on business, a little too far from Galveston to be considered a home base if that were your vacation destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r294253519-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>294253519</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Loved this hotel. Very friendly staff. Clean rooms. Ice machine conveniently located near the elevator.  Awesome breakfast. I  wished the water in the indoor pool would have been heated. Definitely will be booking there again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r260214466-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>260214466</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Basic Clean Hotel</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel close to Galveston for our cruise the next day and couldn’t   find any that matched our critieria that wasn’t sold out.  So I looked at hotels close but based on pretty good reviews.  I like clean hotels.  No matter I still bring cleaning supplies with me, small in size but always needed.  I thought I was a good navigator and it turned out I wasn’t.  I thought the hotel was in Kemah Texas but turns out it was in Texas City.  However, it didn’t matter as it was close to the port maybe even closer.  Anywhoo, the hotel is in an area sort of seems dead or the mall that was next to it.  The hotel is clean. The rooms were clean.  I could stay here again.  The breakfast was very basic maybe more toward continental and not very tasty. However, we really didn’t mind we wasn’t staying there for the food.  The coffee was good however.  The staff was friendly and helpful. We did go out on the patio and that is the big downfall for this hotel;  it hasn’t had attention to it in awhile.  it seemed really weather bitten and bug infested that we had to leave the area.  If you had to stay here  more than a couple of days it may not be the best option but for passing thru it would do.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel close to Galveston for our cruise the next day and couldn’t   find any that matched our critieria that wasn’t sold out.  So I looked at hotels close but based on pretty good reviews.  I like clean hotels.  No matter I still bring cleaning supplies with me, small in size but always needed.  I thought I was a good navigator and it turned out I wasn’t.  I thought the hotel was in Kemah Texas but turns out it was in Texas City.  However, it didn’t matter as it was close to the port maybe even closer.  Anywhoo, the hotel is in an area sort of seems dead or the mall that was next to it.  The hotel is clean. The rooms were clean.  I could stay here again.  The breakfast was very basic maybe more toward continental and not very tasty. However, we really didn’t mind we wasn’t staying there for the food.  The coffee was good however.  The staff was friendly and helpful. We did go out on the patio and that is the big downfall for this hotel;  it hasn’t had attention to it in awhile.  it seemed really weather bitten and bug infested that we had to leave the area.  If you had to stay here  more than a couple of days it may not be the best option but for passing thru it would do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r244869427-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>244869427</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t>We arrived late in evening, check in was quick and easy. All staff were friendly and courteous. They acknowledged us every time they saw us. We relaxed in the hot tub, rooms were clean and beds were comfortable. Breakfast was awesome, food was hot and the waffles were excellent. This was a perfect stay between Kemah and Galveston with a perfect price. This will be our hotel to stay in from now on for our family Christmas weekend or a weekend at the beach.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r219476743-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>219476743</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We spent the weekend in Galveston but we opted to stay here due to the prices being cheaper. It was about a 20-30 minute drive to Galveston and about a 5-10 minute drive to the Tanger Outlet &amp; Buc-ee's. Hotel staff were very helpful, extremely courteous, and very professional. The room was very clean and I would definitely stay here again. Thinking of going back in a couple of week for a birthday celebration!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r215050537-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>215050537</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel ~ Friendly Staff</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel a number of times over a period of about 5 years and although they have gone through a couple of different mangers in that time, they are always very friendly, helpful and eager to assist in anyway they can.  We promised our son that once he finished cancer treatment we would take him fishing at the Galveston Pier, the hotel made sure we had a bottom floor, close to an outside door in case he had any issues and we needed to get out to medical help for any reason.  I want to thank them for a great stay, and for all the extra effort to make sure my son was comfortable.  You guys ROCK!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel a number of times over a period of about 5 years and although they have gone through a couple of different mangers in that time, they are always very friendly, helpful and eager to assist in anyway they can.  We promised our son that once he finished cancer treatment we would take him fishing at the Galveston Pier, the hotel made sure we had a bottom floor, close to an outside door in case he had any issues and we needed to get out to medical help for any reason.  I want to thank them for a great stay, and for all the extra effort to make sure my son was comfortable.  You guys ROCK!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r214867074-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>214867074</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Texas City on Business</t>
+  </si>
+  <si>
+    <t>First this review is for a business trip. If you are looking for a low cost family trip other reviews will be better. The hotel suffered from the moisture that some gulf hotels do giving it a wet and musty feeling. The front desk was unintended one night about 9:30 and I had to wait a couple of minutes to get my key re-swiped. There was noise from the floor above. Not as nice as other hotels at this level.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>First this review is for a business trip. If you are looking for a low cost family trip other reviews will be better. The hotel suffered from the moisture that some gulf hotels do giving it a wet and musty feeling. The front desk was unintended one night about 9:30 and I had to wait a couple of minutes to get my key re-swiped. There was noise from the floor above. Not as nice as other hotels at this level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r210715928-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>210715928</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located between Galveston and Houston. The rates are reasonable. The staff very helpful. The breakfast is great . Love the indoor poor. My family had a good time. We definitely coming back. Very close to the freeway and restaurants, Walmart and Samsclub.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r208491603-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>208491603</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay. The rooms are clean and neat, the hot breakfast in the morning was excellent and amazingly never ran out of eggs, sausage, biscuits and gravy, bacon, or any of the other good foods they had. The staff is friendly as they can be from the front desk to the manager to the maintenance crew. The indoor pool is open from 6am-12pm which is a nice way to end the day. This hotel is well worth the money.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r207936317-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>207936317</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>dated,could have been cleaned more  beds need help</t>
+  </si>
+  <si>
+    <t>Staff was extremely friendly and very helpful.  this hotel needs updating and was more like a motel 6 than a Marriott property. Lucky I was on business as my wife would have made us move on.  although you could see the hotel from the highway the entrance wasn't clearly marked.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Staff was extremely friendly and very helpful.  this hotel needs updating and was more like a motel 6 than a Marriott property. Lucky I was on business as my wife would have made us move on.  although you could see the hotel from the highway the entrance wasn't clearly marked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r201678849-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>201678849</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Worst Manager/Nasty Room</t>
+  </si>
+  <si>
+    <t>We booked a one night stay on 04/11/2014 and I booked the room through what I thought was the Hotel website. When we checked in the young lady at the front desk was very nice and helpful. When got inside the room and I pulled the covers back on the bed and you could visibly see that the bedding had not been changed. I immediately call the front desk and the same young lady that checked us in quickly came and changed the bedding for us, if it had not been for her we would have left right then she was the hotels saving grace. Upon checking out the next day, I was handed my receipt and that address that I had entered when booking the was not the address on my receipt, so I asked why was this and I was told that since it was booked through Priceline this is something they do on their end, so she was nice enough to get the manager to explain this to me and when the manager came to the front she quickly had an attitude and told me that she does not make the rules, this is just what happens when you book through price line, so I asked for her manager and she tells me that there was not one she was the manager. I then firmly asked her for the owner and or over all hotel manager she...We booked a one night stay on 04/11/2014 and I booked the room through what I thought was the Hotel website. When we checked in the young lady at the front desk was very nice and helpful. When got inside the room and I pulled the covers back on the bed and you could visibly see that the bedding had not been changed. I immediately call the front desk and the same young lady that checked us in quickly came and changed the bedding for us, if it had not been for her we would have left right then she was the hotels saving grace. Upon checking out the next day, I was handed my receipt and that address that I had entered when booking the was not the address on my receipt, so I asked why was this and I was told that since it was booked through Priceline this is something they do on their end, so she was nice enough to get the manager to explain this to me and when the manager came to the front she quickly had an attitude and told me that she does not make the rules, this is just what happens when you book through price line, so I asked for her manager and she tells me that there was not one she was the manager. I then firmly asked her for the owner and or over all hotel manager she would not give me a phone number just an email that did not work. I will not ever stay here again and all of my relatives that I recommend to stay here when they are down will not be staying here either.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Owner at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>We booked a one night stay on 04/11/2014 and I booked the room through what I thought was the Hotel website. When we checked in the young lady at the front desk was very nice and helpful. When got inside the room and I pulled the covers back on the bed and you could visibly see that the bedding had not been changed. I immediately call the front desk and the same young lady that checked us in quickly came and changed the bedding for us, if it had not been for her we would have left right then she was the hotels saving grace. Upon checking out the next day, I was handed my receipt and that address that I had entered when booking the was not the address on my receipt, so I asked why was this and I was told that since it was booked through Priceline this is something they do on their end, so she was nice enough to get the manager to explain this to me and when the manager came to the front she quickly had an attitude and told me that she does not make the rules, this is just what happens when you book through price line, so I asked for her manager and she tells me that there was not one she was the manager. I then firmly asked her for the owner and or over all hotel manager she...We booked a one night stay on 04/11/2014 and I booked the room through what I thought was the Hotel website. When we checked in the young lady at the front desk was very nice and helpful. When got inside the room and I pulled the covers back on the bed and you could visibly see that the bedding had not been changed. I immediately call the front desk and the same young lady that checked us in quickly came and changed the bedding for us, if it had not been for her we would have left right then she was the hotels saving grace. Upon checking out the next day, I was handed my receipt and that address that I had entered when booking the was not the address on my receipt, so I asked why was this and I was told that since it was booked through Priceline this is something they do on their end, so she was nice enough to get the manager to explain this to me and when the manager came to the front she quickly had an attitude and told me that she does not make the rules, this is just what happens when you book through price line, so I asked for her manager and she tells me that there was not one she was the manager. I then firmly asked her for the owner and or over all hotel manager she would not give me a phone number just an email that did not work. I will not ever stay here again and all of my relatives that I recommend to stay here when they are down will not be staying here either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r192597500-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>192597500</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Decent Room for the Price</t>
+  </si>
+  <si>
+    <t>There's not a lot to say about this location, except that it's a standard Fairfield property with the amenities you would expect in this price range.  The rooms are a bit worn, but totally clean and the bed was unbelievably comfortable for someone like me who does not sleep well on a hard mattress.  The staff was courteous, the breakfast included the waffle-makers that attract weekenders far and wide, and the location is right next to a mall and many fast food places to choose from.  Free parking and plenty of it.  If you have to spend a night or two in this area, this is the place to do it.  One warning, hallway noise is very audible.  If you are prone to going to sleep early or getting up late, take ear plugs--you WILL hear people talking and moving about in the hallways, but not at indecent hours (IMO).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>There's not a lot to say about this location, except that it's a standard Fairfield property with the amenities you would expect in this price range.  The rooms are a bit worn, but totally clean and the bed was unbelievably comfortable for someone like me who does not sleep well on a hard mattress.  The staff was courteous, the breakfast included the waffle-makers that attract weekenders far and wide, and the location is right next to a mall and many fast food places to choose from.  Free parking and plenty of it.  If you have to spend a night or two in this area, this is the place to do it.  One warning, hallway noise is very audible.  If you are prone to going to sleep early or getting up late, take ear plugs--you WILL hear people talking and moving about in the hallways, but not at indecent hours (IMO).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r192401977-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>192401977</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>A good pre-cruise hotel.</t>
+  </si>
+  <si>
+    <t>I really was expecting the place to be a bit more upscale than it was.  That said, it was clean and comfortable with the basic breakfast buffet and the location is good.  Gulf Greyhound Park is only about a mile away and there are several eating spots nearby.The best thing about this hotel is the staff.  The front desk people were friendly and efficient and the gal taking care of the breakfast bufffet did a great job of keeping it stocked and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r189676610-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>189676610</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The hotel itself was average-- nothing about my room, the pool, or the breakfast was anything special-- but the staff was amazing. The women at the front desk were very friendly whenever we walked by. My first night in I realized my phone charger had broken and asked where I could buy a new one nearby-- the woman working immediately let me borrow hers so I could get a charge before I left for the day.  The women working were always smiling and extremely friendly.  I can almost say I'll miss them.    MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded January 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2014</t>
+  </si>
+  <si>
+    <t>The hotel itself was average-- nothing about my room, the pool, or the breakfast was anything special-- but the staff was amazing. The women at the front desk were very friendly whenever we walked by. My first night in I realized my phone charger had broken and asked where I could buy a new one nearby-- the woman working immediately let me borrow hers so I could get a charge before I left for the day.  The women working were always smiling and extremely friendly.  I can almost say I'll miss them.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r180994608-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>180994608</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Great staff, average hotel</t>
+  </si>
+  <si>
+    <t>Booked 2 separate weekends for a baseball tournament. Got a group rate of $89 at first which really is what I thought what the room was worth. No microwave,  no refrigerator rather compact. Although I notified them in my marriott profile to provide extra towels, they did not. Do to logistics we cancelled 1 of the 4 nights which shot our last night up to the weekend rate of $109. I dont think its worth $109 which is my opinion. The staff is wonderful, they could not have been anymore accommodating to our baseball team. I just cant give a cookie cutter hotel with small rooms and no microwave or refrigerator more than an average rating when they charge $109 per night. Even if the staff is great. I will give the evening auditor an extra praise for her customer service skills, she was incredible. Owner needs to rethink pricing as probably wont be bringing the team back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Booked 2 separate weekends for a baseball tournament. Got a group rate of $89 at first which really is what I thought what the room was worth. No microwave,  no refrigerator rather compact. Although I notified them in my marriott profile to provide extra towels, they did not. Do to logistics we cancelled 1 of the 4 nights which shot our last night up to the weekend rate of $109. I dont think its worth $109 which is my opinion. The staff is wonderful, they could not have been anymore accommodating to our baseball team. I just cant give a cookie cutter hotel with small rooms and no microwave or refrigerator more than an average rating when they charge $109 per night. Even if the staff is great. I will give the evening auditor an extra praise for her customer service skills, she was incredible. Owner needs to rethink pricing as probably wont be bringing the team back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r178502922-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>178502922</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Best Marriott i have ever been at!</t>
+  </si>
+  <si>
+    <t>We stayed here for our summer vacation. Our three year old ended up getting a tummy virus and so you would think we would hate this hotel from our experience alone. NO. WE LOVE IT! Not only did the staff come to check on him, but they offered to wash his car seat cover and clothes that he got sick all over. The sweet lady who restocks the breakfast area comforted me as i cried (we were all a mess, and i am pregnant) and they were just all around the kindest people i have ever come across in a hotel. The rooms were CLEAN the beds were great! My son has asthma and i was pregnant so we didnt want a room that smelled like smoke at all. Our room smelled great----like nothing! Which is the way it should be. :) We stayed on the first floor and heard nothing. A very quiet hotel! We loved the breakfast. They had eggs, sausage, bacon, waffles, biscuits, fresh fruit and eggs, oatmeal, cereal, muffins, and pastries. The coffee was always fresh and they have cranberry juice, orange juice, and a few others that i dont remember. WE LOVE THIS HOTEL! Stay here and drive into Galveston....it's cheaper and better than the GALVEZ!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for our summer vacation. Our three year old ended up getting a tummy virus and so you would think we would hate this hotel from our experience alone. NO. WE LOVE IT! Not only did the staff come to check on him, but they offered to wash his car seat cover and clothes that he got sick all over. The sweet lady who restocks the breakfast area comforted me as i cried (we were all a mess, and i am pregnant) and they were just all around the kindest people i have ever come across in a hotel. The rooms were CLEAN the beds were great! My son has asthma and i was pregnant so we didnt want a room that smelled like smoke at all. Our room smelled great----like nothing! Which is the way it should be. :) We stayed on the first floor and heard nothing. A very quiet hotel! We loved the breakfast. They had eggs, sausage, bacon, waffles, biscuits, fresh fruit and eggs, oatmeal, cereal, muffins, and pastries. The coffee was always fresh and they have cranberry juice, orange juice, and a few others that i dont remember. WE LOVE THIS HOTEL! Stay here and drive into Galveston....it's cheaper and better than the GALVEZ!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r175112046-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>175112046</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Going to Galveston? Stay here and save your $ for sightseeing!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean hotel, with comfortable beds, and just a short drive to Kemah Pier and Galveston pier. Stay here instead of an overpriced two star hotel on Galveston Island, and use save your money to enjoy your vacation. Friendly staff, safe location and near a mall--in case you need anything. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r167624314-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>167624314</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Awesome!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful hotel with great amenities. Close to where the actions is. Will stay again. Great breakfast and clean rooms. Swimming pool was indoors with an hot tub to boot. Also had a BBQ pit that is a first. Great staff and very clean. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r162226179-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>162226179</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Best Stay in Texas City!</t>
+  </si>
+  <si>
+    <t>Great little hotel, tucked away. Very quiet and family friendly. If you are looking for a great hotel just 14 miles from Galveston, with very polite and helpful staff look to this Fairfield Inn of Texas City. They go out of their way to make you feel special and welcome. the General Manager Gayla is exceptional!! I have stayed at many hotels and would recommend this one. It's convenient clean and friendly. Great hot breakfast, eggs, toast, yogurt and fruit.  A well run property. Ask for an Executive Suite if it's available. Their friendliness and attention to guest satisfaction will make me a repeat guest. Thank you!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r158378738-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>158378738</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Really nice hotel.  Was very clean, breakfast was fine and it's just 15 min from the port. Best of all affordable for just a one night stay. The front desk clerk Gloria was very nice and helpful. Will come again when leaving out of tx for cruise. Enjoyed dining at  this little mexican place Gingo's the food was awesome and the drinks were really strong! Wish we had one in my city...lol</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r156588168-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>156588168</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>YOU MUST STAY AT THIS HOTEL!AWSOME JUST AWSOME PLACE</t>
+  </si>
+  <si>
+    <t>I am from Savannah Ga let me tell you about our stay at the Fairfield Inn in Texascity, Tx  i came with my 2 lil girls  the Manager was awsome and  if you stay here ask for Ms Van and Ms Gloria  WE HAD SUCH A GREAT  vacation while visiting my husband as hes in the US MARINES it was a wonderful pllace to stay and talk about clean...its the cleanest placeVERY QUIET AREA IN THIS HOTEL  AND COMFY BEDS AND CHECKIN WAS AWSOME!!!  and breakfast was awsome hot and cold to choose from  Miss Pat made sure the breakfast was awsome too she is only person i know that wipes tables and counters so much that you could eat off the counters, i loved staying here , i felt like i was family at this awsome hotel!! i also asked where i could do laundry and Miss Van gave me a map of Texascity so was i happy? YOU BETTER BELEIVE IT! WHY WOULD I EVER WANT TO STAY AT A HAMPTON OR A HOLIDAYINN  WHEN I GET BEST HOTEL EMPLOYEES AND THE CLEANEST HOTEL RIGHT HERE AT THE FAIRFIELD INN IN TEXASCITY, THANK YOU AGAIN GREAT JOB WELL DONE!!  WE WILL CERTAINLY BE BACK ONCE A MONTH OR EVERY OTHER MONTH WHILE SEEING MY HUSBAND.   Debbie Livingston of GAMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I am from Savannah Ga let me tell you about our stay at the Fairfield Inn in Texascity, Tx  i came with my 2 lil girls  the Manager was awsome and  if you stay here ask for Ms Van and Ms Gloria  WE HAD SUCH A GREAT  vacation while visiting my husband as hes in the US MARINES it was a wonderful pllace to stay and talk about clean...its the cleanest placeVERY QUIET AREA IN THIS HOTEL  AND COMFY BEDS AND CHECKIN WAS AWSOME!!!  and breakfast was awsome hot and cold to choose from  Miss Pat made sure the breakfast was awsome too she is only person i know that wipes tables and counters so much that you could eat off the counters, i loved staying here , i felt like i was family at this awsome hotel!! i also asked where i could do laundry and Miss Van gave me a map of Texascity so was i happy? YOU BETTER BELEIVE IT! WHY WOULD I EVER WANT TO STAY AT A HAMPTON OR A HOLIDAYINN  WHEN I GET BEST HOTEL EMPLOYEES AND THE CLEANEST HOTEL RIGHT HERE AT THE FAIRFIELD INN IN TEXASCITY, THANK YOU AGAIN GREAT JOB WELL DONE!!  WE WILL CERTAINLY BE BACK ONCE A MONTH OR EVERY OTHER MONTH WHILE SEEING MY HUSBAND.   Debbie Livingston of GAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r155330242-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>155330242</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Love The Staff &amp; Hotel</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel numerous times over a period of several years and have never been dissapointed with either the staff are the hotel.  We used to stay at the hotel next door but showed up with a reservation in hand one year and they swore I had cancelled when I never had and said they could upgrade me to a suite for a $ but that wasll all that was available we went over to the Fairfield in the Manger found a room for us and they have always gone out fo their way to be helpful and courteous no mater what time of the day or night we come in or who is on duty.  Can't recommend them enough!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel numerous times over a period of several years and have never been dissapointed with either the staff are the hotel.  We used to stay at the hotel next door but showed up with a reservation in hand one year and they swore I had cancelled when I never had and said they could upgrade me to a suite for a $ but that wasll all that was available we went over to the Fairfield in the Manger found a room for us and they have always gone out fo their way to be helpful and courteous no mater what time of the day or night we come in or who is on duty.  Can't recommend them enough!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r155205266-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>155205266</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Not impressed, room not ready at checkin</t>
+  </si>
+  <si>
+    <t>We arrived at about 3:30 and even though checkin is at 3 we had to wait over 30 minutes in the lobby for the room to be ready. The girl at the front desk offered us bottled water and said that they were short staffed. I can understand that happens sometimes so we may try again at some point. The room was standard, not all that big and the walls didn't seem to keep out any noise. The bathtub didn't drain very well.  The air conditioner/heater did not work at all. Breakfast was standard. For 1/3 less money the La Quinta is a much better deal for the same if not better quality of room and service. MoreShow less</t>
+  </si>
+  <si>
+    <t>TexasCityFF_GM, General Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>We arrived at about 3:30 and even though checkin is at 3 we had to wait over 30 minutes in the lobby for the room to be ready. The girl at the front desk offered us bottled water and said that they were short staffed. I can understand that happens sometimes so we may try again at some point. The room was standard, not all that big and the walls didn't seem to keep out any noise. The bathtub didn't drain very well.  The air conditioner/heater did not work at all. Breakfast was standard. For 1/3 less money the La Quinta is a much better deal for the same if not better quality of room and service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r144972798-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>144972798</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Decent Choice</t>
+  </si>
+  <si>
+    <t>Staff was friendly and accommodating.  Room was clean and bed comfortable.  Breakfast was decent.  Didn't care for the processed breakfast food choices, but the coffee was good, fresh food selection very appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>TexasCityFF_GM, General Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Staff was friendly and accommodating.  Room was clean and bed comfortable.  Breakfast was decent.  Didn't care for the processed breakfast food choices, but the coffee was good, fresh food selection very appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r144175622-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>144175622</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>About average for what appeared to be an aging Fairfield property</t>
+  </si>
+  <si>
+    <t>The value on this hotel is the key. For the price compared to hotels in the area, you get what you pay for. The hotel wasn't awful, just sub-par for a Marriott property. The rooms were a little dated. Nothing appeared to be falling apart, just not in great condition. The bathroom had some cracks in the grout and poorly repaired drywall cracks as well. The shower pressure was pretty low. The halls and stairways had some... strange smell. Sort of like a chemical type smell. Not horrible and the rooms smelled fine.The breakfast was a good selection and again, the staff at breakfast were very helpful.One of the biggest annoyances was the traffic noise and the aircraft of some sort that started flying over around 7:30 AM. I slept well until that point, so the traffic noise wasn't too bad, but the planes were very loud and close when they did start flying.If I were in the area again, I'd definitely look for another place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The value on this hotel is the key. For the price compared to hotels in the area, you get what you pay for. The hotel wasn't awful, just sub-par for a Marriott property. The rooms were a little dated. Nothing appeared to be falling apart, just not in great condition. The bathroom had some cracks in the grout and poorly repaired drywall cracks as well. The shower pressure was pretty low. The halls and stairways had some... strange smell. Sort of like a chemical type smell. Not horrible and the rooms smelled fine.The breakfast was a good selection and again, the staff at breakfast were very helpful.One of the biggest annoyances was the traffic noise and the aircraft of some sort that started flying over around 7:30 AM. I slept well until that point, so the traffic noise wasn't too bad, but the planes were very loud and close when they did start flying.If I were in the area again, I'd definitely look for another place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r138463017-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>138463017</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Room smelled like mildew</t>
+  </si>
+  <si>
+    <t>We stayed in room 304 and the smelled bad and windows had failed and were completely fogged up. Thought a place with the Marriot name would be held to a higher standard. Will never stay at a Fairfield again...MoreShow less</t>
+  </si>
+  <si>
+    <t>TexasCityFF_GM, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded September 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2012</t>
+  </si>
+  <si>
+    <t>We stayed in room 304 and the smelled bad and windows had failed and were completely fogged up. Thought a place with the Marriot name would be held to a higher standard. Will never stay at a Fairfield again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r136155228-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>136155228</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>AMAZING STAFF!!!</t>
+  </si>
+  <si>
+    <t>I brought my Girl Scout troop here as it was an affordable option near to Galveston.  The rooms were clean, the lobby inviting and the pool was just right, but the absolute BEST was the staff.  Gloria welcomed us and helped us get settled even making my littlest scout feel welcome and special.  When the girls had problems popping popcorn in the lobby--she patiently helped them.  I had some work to do on the computer and heard her very helpful reviews of and directions to various food places.  The next morning, the staff was equally awesome.  This staff seems to value hospitality and it really shows.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r134035833-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>134035833</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Good Place</t>
+  </si>
+  <si>
+    <t>Prior to our cruise my family of 12 stayed 1 night here.  We had a total of 4 rooms and all in close range to each other.  The front desk clerk on that day was awesome.  The breakfast that was offered was Texas shaped waffles along with other things.  Overall it was a good experience and I would go back.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r131203267-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>131203267</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>The stay was great. Clean hotel, very friendly and helpful staff. Would defiantly would stay again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r128362655-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>128362655</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Price, Great Service</t>
+  </si>
+  <si>
+    <t>Can't go wrong with Marriott Hotels, and this Fairfield Inn was great. We made a spontaneous trip to Galveston but decided to stay in Texas City, just to save a few bucks. Well for about $89 per night it was AMAZING!!! I would have easily paid more than that for this hotel. We had a spacious, 2 queen bed bedroom on the 3rd floor. It was clean, extremely well kept. Breakfast was nice, typical hotel breakfast (no eggs, but they did have bagels, cereals, waffles, etc.) but in case you're not interested there is a Whataburger and Waffle House near by. The service was great, very friendly and helpful. We also checked out the infoor heated pool area and sat in the jacuzzi, which was nice and clean.The hotel is near the Mall of the Mainland but we didn't go t the mall. It's walking distance though. There is a Ryan's and an Olive Garden near by as well.Best of all, this place is only 13 miles from Galveston, didn't even take us more than 10 minutes to get there. One day we even went back and forth to our hotel/to the beach/strand twice, 3 times!!Definitely highly recommend this to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Can't go wrong with Marriott Hotels, and this Fairfield Inn was great. We made a spontaneous trip to Galveston but decided to stay in Texas City, just to save a few bucks. Well for about $89 per night it was AMAZING!!! I would have easily paid more than that for this hotel. We had a spacious, 2 queen bed bedroom on the 3rd floor. It was clean, extremely well kept. Breakfast was nice, typical hotel breakfast (no eggs, but they did have bagels, cereals, waffles, etc.) but in case you're not interested there is a Whataburger and Waffle House near by. The service was great, very friendly and helpful. We also checked out the infoor heated pool area and sat in the jacuzzi, which was nice and clean.The hotel is near the Mall of the Mainland but we didn't go t the mall. It's walking distance though. There is a Ryan's and an Olive Garden near by as well.Best of all, this place is only 13 miles from Galveston, didn't even take us more than 10 minutes to get there. One day we even went back and forth to our hotel/to the beach/strand twice, 3 times!!Definitely highly recommend this to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r126597469-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>126597469</t>
+  </si>
+  <si>
+    <t>03/24/2012</t>
+  </si>
+  <si>
+    <t>great location and service</t>
+  </si>
+  <si>
+    <t>Stayed one night before a cruise. Great location in front of mall and easy acess to highways. Great breakfast and great front desk service.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r125692006-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>125692006</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Hospitality Plus</t>
+  </si>
+  <si>
+    <t>All of the employees at this motel must have taken a class on customer relations.  I have only found one other motel (in Leland NC) where the staff makes you feel like you are the only one staying there. (and I have stayed at many places in my years of travel)     Glory (or Gloria) at the desk and Pat at the breakfast bar are the best.  (I really should not single them out because everyone was great.)     Good things about this place:1)  Very comfortable bed2)  Heated swimming pool ( just like bath tub water)3)  Excellent breakfast bar (waffles - Jimmy Dean sandwiches etc.4)  Great water pressure in the shower 5)  Large flat screen TV6)  Overall - the place looks like it is new.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>All of the employees at this motel must have taken a class on customer relations.  I have only found one other motel (in Leland NC) where the staff makes you feel like you are the only one staying there. (and I have stayed at many places in my years of travel)     Glory (or Gloria) at the desk and Pat at the breakfast bar are the best.  (I really should not single them out because everyone was great.)     Good things about this place:1)  Very comfortable bed2)  Heated swimming pool ( just like bath tub water)3)  Excellent breakfast bar (waffles - Jimmy Dean sandwiches etc.4)  Great water pressure in the shower 5)  Large flat screen TV6)  Overall - the place looks like it is new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r120689530-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>120689530</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>Love The Heated, Indoor Swimming Pool &amp; Jacuzzi.</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for one week.  I must say that I was very pleased with the cleanliness of the entire hotel &amp; the friendliness of the staff. This hotel has an Indoor Heated Swimming Pool &amp; Jacuzzi. I used both every night of my stay. I would never have thought that these two amenities would have made SUCH A GREAT DIFFERENCE in my enjoyment of a hotel. I have absolutely No Complaints about the hotel. I believe it is a little overpriced for such small rooms; but otherwise everything was great. The Staff was absolutely Great. The Manager "Gayla" went Above &amp; Beyond to make sure my stay was great ... As did all of the staff actually. I definitely WILL stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for one week.  I must say that I was very pleased with the cleanliness of the entire hotel &amp; the friendliness of the staff. This hotel has an Indoor Heated Swimming Pool &amp; Jacuzzi. I used both every night of my stay. I would never have thought that these two amenities would have made SUCH A GREAT DIFFERENCE in my enjoyment of a hotel. I have absolutely No Complaints about the hotel. I believe it is a little overpriced for such small rooms; but otherwise everything was great. The Staff was absolutely Great. The Manager "Gayla" went Above &amp; Beyond to make sure my stay was great ... As did all of the staff actually. I definitely WILL stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r116586117-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>116586117</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Lone Star Waffles!</t>
+  </si>
+  <si>
+    <t>The location, at Mall of the Mainland, was ideal for us.  It's situated on the Frontage Road of Emmett F. Lowry Expressway (east side) and is convenient to Texas City, Galveston, and surrounding communities.This property was clean and cool on a very hot August day.  I requested and received a 3rd-floor room away from the elevator.  The hotel was quiet, with the exception of the short  horn sounds I heard each time another guest parked, exited his vehicle, and locked it.The highlight of my stay was definitely the continental breakfast.  In addition to bagels and muffins, cold cereals, juice, fruit, milk and coffee, I was pleasantly surprised by a hot waffle iron at the far end of the breakfast bar.  I self-served a cup of batter, poured it into the iron and let the machine do its magic.  The timer sounded and I removed the fresh, steaming hot waffle.  Imagine my utter delight when I looked down at my plate -- which was dwarfed by the waffle -- and saw the State of Texas looking up at me!  Yes, the waffles are actually edible likenesses of the Lone Star State!  [Tip: Don't overfill the batter, or you could end up with portions of Oklahoma and New Mexico as well...]MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>The location, at Mall of the Mainland, was ideal for us.  It's situated on the Frontage Road of Emmett F. Lowry Expressway (east side) and is convenient to Texas City, Galveston, and surrounding communities.This property was clean and cool on a very hot August day.  I requested and received a 3rd-floor room away from the elevator.  The hotel was quiet, with the exception of the short  horn sounds I heard each time another guest parked, exited his vehicle, and locked it.The highlight of my stay was definitely the continental breakfast.  In addition to bagels and muffins, cold cereals, juice, fruit, milk and coffee, I was pleasantly surprised by a hot waffle iron at the far end of the breakfast bar.  I self-served a cup of batter, poured it into the iron and let the machine do its magic.  The timer sounded and I removed the fresh, steaming hot waffle.  Imagine my utter delight when I looked down at my plate -- which was dwarfed by the waffle -- and saw the State of Texas looking up at me!  Yes, the waffles are actually edible likenesses of the Lone Star State!  [Tip: Don't overfill the batter, or you could end up with portions of Oklahoma and New Mexico as well...]More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r115557032-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>115557032</t>
+  </si>
+  <si>
+    <t>07/19/2011</t>
+  </si>
+  <si>
+    <t>"Very friendly and accomodating"</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on our way to Galveston Tx for a cruise. It was very clean and the staff was very helpful and attentive. The beds were very comfortable.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r72645959-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>72645959</t>
+  </si>
+  <si>
+    <t>07/27/2010</t>
+  </si>
+  <si>
+    <t>great time</t>
+  </si>
+  <si>
+    <t>we would recommend to stay here again we went as a21yr anvir stay the weekend..the attendant was so nice to us there is a ryans, the mall, and movie theather, walmart it was nice going back again.....</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r63132513-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>63132513</t>
+  </si>
+  <si>
+    <t>05/03/2010</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL</t>
+  </si>
+  <si>
+    <t>This is the second time that we have stayed at this hotel while working at the League City Village Fair.  The hotel staff are excellent!  Miss Tracey the manager is very helpful as are her front desk clerks, no matter what time of the day or night we come in they are friendly and eager to help. There is a Ryans bakery and grill next door, also within less than 1/3 a mile are olive garden and a chinese buffett rest.Rooms are clean, and service is great.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r46092578-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>46092578</t>
+  </si>
+  <si>
+    <t>10/07/2009</t>
+  </si>
+  <si>
+    <t>Excellent!! I would stay here again in a heartbeat!!</t>
+  </si>
+  <si>
+    <t>A group of us stayed here for our high school reunion.  The staff could not have been more welcoming.  We took over their lobby and they did whatever they could to make us feel at home.  I have special kudos for Maranda on the housekeeping staff who took special care of us.  I would definitely stay here again and would highly recommend it to others.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r18326518-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>18326518</t>
+  </si>
+  <si>
+    <t>07/27/2008</t>
+  </si>
+  <si>
+    <t>Good value for the money.</t>
+  </si>
+  <si>
+    <t>Good price, nice and clean. Breakfast was so-so. I would come back if I travel in the area again. Nice restaurants nearby.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r14581841-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>14581841</t>
+  </si>
+  <si>
+    <t>03/27/2008</t>
+  </si>
+  <si>
+    <t>NO BREAKFAST</t>
+  </si>
+  <si>
+    <t>This place was under construction and there was no problem there except next morning by 7:30 to 8 A.M. there was nothing left for  breakfast and no one at the front desk seem concern--this was the beginning of spring break and with 5 children this was a real turn off--I could understand if they ran out of breakfast say 9 but not by 7:30----they had a lot of mad people there---everything was gone, I mean not one crumb left. I expect they did not put out enough food to barly serve 20 people in the beginning</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r14492316-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>14492316</t>
+  </si>
+  <si>
+    <t>03/24/2008</t>
+  </si>
+  <si>
+    <t>An Alternative to Galveston</t>
+  </si>
+  <si>
+    <t>After a mediocre experience at a Galveston hotel last year, and finding absurd prices there this year, we decided to give this a try.  It's a short ride along I-45, and was very convenient.The hotel Web site said it was under renovation until 3/31/08, but we were not bothered by any construction noise.  Some storage units ate up spots in a small parking lot, but we were told there's no problem parking in the adjacent mall or restaurant.The room is a bit nicer than your typical Fairfield, and the property is clean.  Breakfast was what you'd expect.At the front desk, it's a bit iffy.  I called a day before we were due to see if any rooms were available that night.  First I was told yes, and quoted an AAA rate lower than what I had the following night.  When I asked if that rate was available for when I originally booked, I was put on hold, then told there were no rooms that night, after all.  An inquiry as to how that changed in 60 seconds got the response that she'd just checked with the other woman there.  Hmm...MoreShow less</t>
+  </si>
+  <si>
+    <t>After a mediocre experience at a Galveston hotel last year, and finding absurd prices there this year, we decided to give this a try.  It's a short ride along I-45, and was very convenient.The hotel Web site said it was under renovation until 3/31/08, but we were not bothered by any construction noise.  Some storage units ate up spots in a small parking lot, but we were told there's no problem parking in the adjacent mall or restaurant.The room is a bit nicer than your typical Fairfield, and the property is clean.  Breakfast was what you'd expect.At the front desk, it's a bit iffy.  I called a day before we were due to see if any rooms were available that night.  First I was told yes, and quoted an AAA rate lower than what I had the following night.  When I asked if that rate was available for when I originally booked, I was put on hold, then told there were no rooms that night, after all.  An inquiry as to how that changed in 60 seconds got the response that she'd just checked with the other woman there.  Hmm...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r8230079-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>8230079</t>
+  </si>
+  <si>
+    <t>07/23/2007</t>
+  </si>
+  <si>
+    <t>Thanks Fairfield</t>
+  </si>
+  <si>
+    <t>My mother, 7 year old, 3 year old and I stayed at this hotel before my daughter's surgery in Houston.  Everyone was very nice and the rooms were very clean.  Thanks Fairfield Inn for making this time in our lives a little easier!</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r5800471-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>5800471</t>
+  </si>
+  <si>
+    <t>09/13/2006</t>
+  </si>
+  <si>
+    <t>Great place to stay for the USS Texas Commissioning</t>
+  </si>
+  <si>
+    <t>Our group traveled from Zephyrhills Fl. to attend the Commissioninfg of the USS Texas in Galveston. Everyone at the Fairfield Inn made us feel at home for the 3 nights we stayed.  The GM was so friendly and made sure we were all taken care of.The housekeeping and maintenance staff also were very friendly and helpful.  Breakfast was waiting for us each morning and the food was good.  The place was clean and very pleasant. Please let them know how much they made our visit enjoyable.  They all played an important role in making our Heart's Desire Wish for one person in our party a huge success.  Thanks again.  BettyMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>Our group traveled from Zephyrhills Fl. to attend the Commissioninfg of the USS Texas in Galveston. Everyone at the Fairfield Inn made us feel at home for the 3 nights we stayed.  The GM was so friendly and made sure we were all taken care of.The housekeeping and maintenance staff also were very friendly and helpful.  Breakfast was waiting for us each morning and the food was good.  The place was clean and very pleasant. Please let them know how much they made our visit enjoyable.  They all played an important role in making our Heart's Desire Wish for one person in our party a huge success.  Thanks again.  BettyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r5460784-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>5460784</t>
+  </si>
+  <si>
+    <t>07/11/2006</t>
+  </si>
+  <si>
+    <t>Clean and Inexpensive</t>
+  </si>
+  <si>
+    <t>Just recently was here on business. Very nice staff and clean hotel. The price was definitely right. it is about 35 minutes south of Houston and 15 minutes north of galveston.</t>
+  </si>
+  <si>
+    <t>July 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2065,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2097,4685 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>205</v>
+      </c>
+      <c r="X22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>247</v>
+      </c>
+      <c r="X28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="X30" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>275</v>
+      </c>
+      <c r="X32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>295</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>303</v>
+      </c>
+      <c r="X36" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>316</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>316</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>322</v>
+      </c>
+      <c r="X39" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>331</v>
+      </c>
+      <c r="X40" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>340</v>
+      </c>
+      <c r="X41" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" t="s">
+        <v>345</v>
+      </c>
+      <c r="K42" t="s">
+        <v>346</v>
+      </c>
+      <c r="L42" t="s">
+        <v>347</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>339</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>352</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>353</v>
+      </c>
+      <c r="X43" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>362</v>
+      </c>
+      <c r="X44" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>365</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>366</v>
+      </c>
+      <c r="J45" t="s">
+        <v>367</v>
+      </c>
+      <c r="K45" t="s">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s">
+        <v>369</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>370</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>382</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>383</v>
+      </c>
+      <c r="J48" t="s">
+        <v>384</v>
+      </c>
+      <c r="K48" t="s">
+        <v>385</v>
+      </c>
+      <c r="L48" t="s">
+        <v>386</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>387</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>402</v>
+      </c>
+      <c r="K51" t="s">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>405</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>407</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>408</v>
+      </c>
+      <c r="J52" t="s">
+        <v>409</v>
+      </c>
+      <c r="K52" t="s">
+        <v>410</v>
+      </c>
+      <c r="L52" t="s">
+        <v>411</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>412</v>
+      </c>
+      <c r="X52" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>421</v>
+      </c>
+      <c r="X53" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54" t="s">
+        <v>426</v>
+      </c>
+      <c r="K54" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>429</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>436</v>
+      </c>
+      <c r="X55" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>440</v>
+      </c>
+      <c r="J56" t="s">
+        <v>441</v>
+      </c>
+      <c r="K56" t="s">
+        <v>442</v>
+      </c>
+      <c r="L56" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>444</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>445</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>446</v>
+      </c>
+      <c r="J57" t="s">
+        <v>447</v>
+      </c>
+      <c r="K57" t="s">
+        <v>448</v>
+      </c>
+      <c r="L57" t="s">
+        <v>449</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>450</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+      <c r="J58" t="s">
+        <v>453</v>
+      </c>
+      <c r="K58" t="s">
+        <v>454</v>
+      </c>
+      <c r="L58" t="s">
+        <v>455</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59" t="s">
+        <v>459</v>
+      </c>
+      <c r="L59" t="s">
+        <v>460</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>461</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>463</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>464</v>
+      </c>
+      <c r="J60" t="s">
+        <v>465</v>
+      </c>
+      <c r="K60" t="s">
+        <v>466</v>
+      </c>
+      <c r="L60" t="s">
+        <v>467</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>468</v>
+      </c>
+      <c r="O60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>469</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>470</v>
+      </c>
+      <c r="J61" t="s">
+        <v>471</v>
+      </c>
+      <c r="K61" t="s">
+        <v>472</v>
+      </c>
+      <c r="L61" t="s">
+        <v>473</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>474</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>476</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>477</v>
+      </c>
+      <c r="J62" t="s">
+        <v>478</v>
+      </c>
+      <c r="K62" t="s">
+        <v>479</v>
+      </c>
+      <c r="L62" t="s">
+        <v>480</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>482</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>483</v>
+      </c>
+      <c r="J63" t="s">
+        <v>484</v>
+      </c>
+      <c r="K63" t="s">
+        <v>485</v>
+      </c>
+      <c r="L63" t="s">
+        <v>486</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>487</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>489</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>490</v>
+      </c>
+      <c r="J64" t="s">
+        <v>491</v>
+      </c>
+      <c r="K64" t="s">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s">
+        <v>493</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>494</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>495</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>496</v>
+      </c>
+      <c r="J65" t="s">
+        <v>497</v>
+      </c>
+      <c r="K65" t="s">
+        <v>498</v>
+      </c>
+      <c r="L65" t="s">
+        <v>499</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>500</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>501</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>502</v>
+      </c>
+      <c r="J66" t="s">
+        <v>503</v>
+      </c>
+      <c r="K66" t="s">
+        <v>504</v>
+      </c>
+      <c r="L66" t="s">
+        <v>505</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>506</v>
+      </c>
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>507</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>508</v>
+      </c>
+      <c r="J67" t="s">
+        <v>509</v>
+      </c>
+      <c r="K67" t="s">
+        <v>510</v>
+      </c>
+      <c r="L67" t="s">
+        <v>511</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>512</v>
+      </c>
+      <c r="O67" t="s">
+        <v>111</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>513</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>514</v>
+      </c>
+      <c r="J68" t="s">
+        <v>515</v>
+      </c>
+      <c r="K68" t="s">
+        <v>516</v>
+      </c>
+      <c r="L68" t="s">
+        <v>517</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>518</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>519</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>520</v>
+      </c>
+      <c r="J69" t="s">
+        <v>521</v>
+      </c>
+      <c r="K69" t="s">
+        <v>522</v>
+      </c>
+      <c r="L69" t="s">
+        <v>523</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>524</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>525</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>526</v>
+      </c>
+      <c r="J70" t="s">
+        <v>527</v>
+      </c>
+      <c r="K70" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" t="s">
+        <v>529</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>524</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>531</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>532</v>
+      </c>
+      <c r="J71" t="s">
+        <v>533</v>
+      </c>
+      <c r="K71" t="s">
+        <v>534</v>
+      </c>
+      <c r="L71" t="s">
+        <v>535</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>536</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>537</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>538</v>
+      </c>
+      <c r="J72" t="s">
+        <v>539</v>
+      </c>
+      <c r="K72" t="s">
+        <v>540</v>
+      </c>
+      <c r="L72" t="s">
+        <v>541</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>542</v>
+      </c>
+      <c r="O72" t="s">
+        <v>81</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>544</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>545</v>
+      </c>
+      <c r="J73" t="s">
+        <v>546</v>
+      </c>
+      <c r="K73" t="s">
+        <v>547</v>
+      </c>
+      <c r="L73" t="s">
+        <v>548</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>549</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_90.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="876">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r599734387-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>56761</t>
+  </si>
+  <si>
+    <t>106252</t>
+  </si>
+  <si>
+    <t>599734387</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>We stayed here July 22nd ad 23rd. We had requested a late check in but then decided to check in early due to being tired from activities in Galveston, When we arrived our room was not quite ready due to multiple people leaving on a Sunday. Sherri advised me that she would have the next room available for us. We had a room within 10 minutes!!! The housekeeper, Eric, was excellent and so very friendly. He was so kind to my nephew and he joked with us as we came in. The next day we left in a ruch and failed to leave the sign on the door that it was not necessary for him to clean the room. Eric cleaned the room as much as possible and even left us a kind note that he was sorry that he could not make our beds because we had left our personal belongings on the beds. I have never had anyone in housekeeping treat me in a manner like this. Kimmie that prepared the breakfast was extra sweet too. She was on top of things and when she saw that anything was running low she back in the kitchen preparing more food. She amazed us at how she was able to prepare so much food so quickly. The beds were very comfy and I cannot say enough good things about this hotel. I will definitely stay here again when I visit...We stayed here July 22nd ad 23rd. We had requested a late check in but then decided to check in early due to being tired from activities in Galveston, When we arrived our room was not quite ready due to multiple people leaving on a Sunday. Sherri advised me that she would have the next room available for us. We had a room within 10 minutes!!! The housekeeper, Eric, was excellent and so very friendly. He was so kind to my nephew and he joked with us as we came in. The next day we left in a ruch and failed to leave the sign on the door that it was not necessary for him to clean the room. Eric cleaned the room as much as possible and even left us a kind note that he was sorry that he could not make our beds because we had left our personal belongings on the beds. I have never had anyone in housekeeping treat me in a manner like this. Kimmie that prepared the breakfast was extra sweet too. She was on top of things and when she saw that anything was running low she back in the kitchen preparing more food. She amazed us at how she was able to prepare so much food so quickly. The beds were very comfy and I cannot say enough good things about this hotel. I will definitely stay here again when I visit Galveston. Thank you for such a wonderful staff and excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Teresa C, General Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here July 22nd ad 23rd. We had requested a late check in but then decided to check in early due to being tired from activities in Galveston, When we arrived our room was not quite ready due to multiple people leaving on a Sunday. Sherri advised me that she would have the next room available for us. We had a room within 10 minutes!!! The housekeeper, Eric, was excellent and so very friendly. He was so kind to my nephew and he joked with us as we came in. The next day we left in a ruch and failed to leave the sign on the door that it was not necessary for him to clean the room. Eric cleaned the room as much as possible and even left us a kind note that he was sorry that he could not make our beds because we had left our personal belongings on the beds. I have never had anyone in housekeeping treat me in a manner like this. Kimmie that prepared the breakfast was extra sweet too. She was on top of things and when she saw that anything was running low she back in the kitchen preparing more food. She amazed us at how she was able to prepare so much food so quickly. The beds were very comfy and I cannot say enough good things about this hotel. I will definitely stay here again when I visit...We stayed here July 22nd ad 23rd. We had requested a late check in but then decided to check in early due to being tired from activities in Galveston, When we arrived our room was not quite ready due to multiple people leaving on a Sunday. Sherri advised me that she would have the next room available for us. We had a room within 10 minutes!!! The housekeeper, Eric, was excellent and so very friendly. He was so kind to my nephew and he joked with us as we came in. The next day we left in a ruch and failed to leave the sign on the door that it was not necessary for him to clean the room. Eric cleaned the room as much as possible and even left us a kind note that he was sorry that he could not make our beds because we had left our personal belongings on the beds. I have never had anyone in housekeeping treat me in a manner like this. Kimmie that prepared the breakfast was extra sweet too. She was on top of things and when she saw that anything was running low she back in the kitchen preparing more food. She amazed us at how she was able to prepare so much food so quickly. The beds were very comfy and I cannot say enough good things about this hotel. I will definitely stay here again when I visit Galveston. Thank you for such a wonderful staff and excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r599715452-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>599715452</t>
+  </si>
+  <si>
+    <t>Fantastic stay and very reasonably priced</t>
+  </si>
+  <si>
+    <t>Can't say enough good things about the Fairfield in Texas City.  We stay there as just a few miles from Galveston and better price and value!!  The breakfast every morning was unbelievable and Ms Kimmie works very hard to be sure everyone is satisfied. Sherri at the front desk was awesome in answering questions, helping us mail post cards and making check in &amp; out so easy!  And Eric was our housekeeper - now that man enjoys his job!!!  Made sure we had fresh linens in the bathroom and asked if there was anything he could do to make our stay better.  Awesome group and Fairfield Inn is so lucky to have them!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Can't say enough good things about the Fairfield in Texas City.  We stay there as just a few miles from Galveston and better price and value!!  The breakfast every morning was unbelievable and Ms Kimmie works very hard to be sure everyone is satisfied. Sherri at the front desk was awesome in answering questions, helping us mail post cards and making check in &amp; out so easy!  And Eric was our housekeeper - now that man enjoys his job!!!  Made sure we had fresh linens in the bathroom and asked if there was anything he could do to make our stay better.  Awesome group and Fairfield Inn is so lucky to have them!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r573745523-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
-    <t>56761</t>
-  </si>
-  <si>
-    <t>106252</t>
-  </si>
-  <si>
     <t>573745523</t>
   </si>
   <si>
@@ -168,7 +213,7 @@
     <t>Clean</t>
   </si>
   <si>
-    <t>A Nice Hotel. My Room was very clean. It had a bedroom area and a living room area. Which I felt made the room a little dark and not seem as big. Good wifi, Friendly Staff, and a Nice breakfast.We arrived on Tuesday and they informed us that they were booked up for Saturday. So, We had to look for another hotel but I would recommend this hotel over the others in the area m</t>
+    <t>A Nice Hotel. My Room was very clean. It had a bedroom area and a living room area. Which I felt made the room a little dark and not seem as big. Good wifi, Friendly Staff, and a Nice breakfast.We arrived on Tuesday and they informed us that they were booked up for Saturday. So, We had to look for another hotel but I would recommend this hotel over the others in the area mMoreShow less</t>
   </si>
   <si>
     <t>April 2018</t>
@@ -177,6 +222,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>A Nice Hotel. My Room was very clean. It had a bedroom area and a living room area. Which I felt made the room a little dark and not seem as big. Good wifi, Friendly Staff, and a Nice breakfast.We arrived on Tuesday and they informed us that they were booked up for Saturday. So, We had to look for another hotel but I would recommend this hotel over the others in the area mMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r565846214-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -189,13 +237,13 @@
     <t xml:space="preserve">Good location </t>
   </si>
   <si>
-    <t xml:space="preserve">We stayed here for two days and the location was great. The rooms were clean, the breakfast was great and there were different options on some items both days. The waffle maker was a hit with our kids. We didn't use the pool because the first night it was crowded and the second night the heater wasn't working in it and I didn't want the kids in cold water. The staff was great as well and there is an Olivr and Gringo's Mexican Kitchen around the corner. Overall we enjoyed our stay and will stay again. </t>
+    <t>We stayed here for two days and the location was great. The rooms were clean, the breakfast was great and there were different options on some items both days. The waffle maker was a hit with our kids. We didn't use the pool because the first night it was crowded and the second night the heater wasn't working in it and I didn't want the kids in cold water. The staff was great as well and there is an Olivr and Gringo's Mexican Kitchen around the corner. Overall we enjoyed our stay and will stay again. MoreShow less</t>
   </si>
   <si>
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>We stayed here for two days and the location was great. The rooms were clean, the breakfast was great and there were different options on some items both days. The waffle maker was a hit with our kids. We didn't use the pool because the first night it was crowded and the second night the heater wasn't working in it and I didn't want the kids in cold water. The staff was great as well and there is an Olivr and Gringo's Mexican Kitchen around the corner. Overall we enjoyed our stay and will stay again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r561026005-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
@@ -225,6 +273,60 @@
     <t>We stayed here for one night before hopping on our cruise. Hotel is clean, staff was friendly, room was nice. Things look nice cosmetically. Indoor pool seemed hopping, although we didn’t use it. The breakfast was standard hotel breakfast fare, we enjoyed it. One thing that was a bit of a turn off was that when we arrived back at the hotel after dinner, a group of about 4 people were standing directly outside the front door smoking, including the lady working the front desk, so we were forced to walk through their nasty cloud of second hand smoke to get into the property so a designated smoking area away from the front door would be nice. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r560535727-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>560535727</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>No frills. Musty and dated.</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding in early Jan. The hotel was fine but the room was musty (close to the pool) and quite dated. The tub was stained and chipped etc. It wasn't awful but it wasn't anything fancy. It's not a great area- kind of industrial in between Houston and Galveston. The pool was quite chilly for January, I don't believe it was heated. No hot tub, no frills. Decent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Myisha M, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding in early Jan. The hotel was fine but the room was musty (close to the pool) and quite dated. The tub was stained and chipped etc. It wasn't awful but it wasn't anything fancy. It's not a great area- kind of industrial in between Houston and Galveston. The pool was quite chilly for January, I don't believe it was heated. No hot tub, no frills. Decent breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r533754213-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>533754213</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Hotel  rooms were booked after Hurricane and we were told hotel was ok.   When we arrived the hotel was closed.</t>
+  </si>
+  <si>
+    <t>Hotel rooms were booked after the hurricane and we were told the hotel was ok.  When we arrived we found the hotel was closed and we had to scramble to find a hotel with two rooms available.  I called corporate headquarters and gave them our confirmation numbers and they were of no help finding us rooms elsewhere. After trying several other hotels we ended up spending hundreds of dollars more for two last minute hotel rooms elsewhere.   Very disapointed in the poor customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Hotel rooms were booked after the hurricane and we were told the hotel was ok.  When we arrived we found the hotel was closed and we had to scramble to find a hotel with two rooms available.  I called corporate headquarters and gave them our confirmation numbers and they were of no help finding us rooms elsewhere. After trying several other hotels we ended up spending hundreds of dollars more for two last minute hotel rooms elsewhere.   Very disapointed in the poor customer service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r506832428-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -237,12 +339,15 @@
     <t>Great Stay, Great Price</t>
   </si>
   <si>
-    <t>Lovely hotel- great breakfast, super comfy beds, good-sized rooms, and wonderfully attentive staff. Perfect for day trips to Galveston, for a much more reasonable price than staying on the island itself.</t>
+    <t>Lovely hotel- great breakfast, super comfy beds, good-sized rooms, and wonderfully attentive staff. Perfect for day trips to Galveston, for a much more reasonable price than staying on the island itself.MoreShow less</t>
   </si>
   <si>
     <t>July 2017</t>
   </si>
   <si>
+    <t>Lovely hotel- great breakfast, super comfy beds, good-sized rooms, and wonderfully attentive staff. Perfect for day trips to Galveston, for a much more reasonable price than staying on the island itself.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r499286981-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -255,13 +360,16 @@
     <t xml:space="preserve">Best hotel in Texas City </t>
   </si>
   <si>
-    <t>This is a great hotel.  If you are visiting the outlet malls or Galveston, this is a great place to stay.  It's near the mall and bucees. Highly recommended all around for its great service and great rooms.</t>
+    <t>This is a great hotel.  If you are visiting the outlet malls or Galveston, this is a great place to stay.  It's near the mall and bucees. Highly recommended all around for its great service and great rooms.MoreShow less</t>
   </si>
   <si>
     <t>June 2017</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  If you are visiting the outlet malls or Galveston, this is a great place to stay.  It's near the mall and bucees. Highly recommended all around for its great service and great rooms.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r499166516-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
@@ -291,6 +399,56 @@
 The room - the place with the most complaints. So, the curtains are sheer, which means if you plan to sleep in, it's not going to happen. At night, the light shines through and in the morning here comes the sun. The walls are paper thin and so are the ceilings, get a room in the 3rd floor. Sounded like sumo wrestlers all night. On day 2, our toilet overflowed and spilled yucky, germy toilet juice all over the floor....So, I must say, this hotel had some pro's, but mostly con's. The staff was friendly upon check in, the hotel was clean and in a convenient enough location, but that's about it. Pool - The hotel advertised a hot tub, there was none, and this had to be the smallest pool we had ever seen but, with a kid excited to swim, we made due. Atleast for the 1 night out of 3 we were able to enjoy the pool, the other 2 nights the mosquitos were so bad in the pool area that we weren't able to even enter. There were other guests complaining about them as well. Breakfast - There is 1 waffle maker, we waited atleast 30 minutes for a waffle, the omlets were gone, the ham was tough and dry once we took it out of the pan of water it was laying in, the coffee was decent and so were the bagels and cereal. The room - the place with the most complaints. So, the curtains are sheer, which means if you plan to sleep in, it's not going to happen. At night, the light shines through and in the morning here comes the sun. The walls are paper thin and so are the ceilings, get a room in the 3rd floor. Sounded like sumo wrestlers all night. On day 2, our toilet overflowed and spilled yucky, germy toilet juice all over the floor. The "maintenance guy" claims its because a tag from a t-shirt was in the toilet (questionable emoji) I question how well they actually cleaned our room and bathroom that day because there was still hair on the floor in the bathroom and the bed was not made. There was a note from Heidi who "cleaned" our room stating she didn't make the bed because our daughter's sleeping bag was on it when I know that I folded it and placed it on top of her suitcase. So that lets me know she either put it there to not make the bed, or our things were gone through. She also left the empty pizza box in the room and the dirty paper cup on the dresser. We always clean up prior to having our room serviced so the things that needed to be thrown away were obvious.  Our backs were sore from how uncomfortable the bed was for us and our 7 year old. I guess I expected more from a Marriott. I mean, if you're looking for a quick 1 night spot then it's the perfect spot. But anything more, I would avoid.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r498881073-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>498881073</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Busy holiday weekend stay</t>
+  </si>
+  <si>
+    <t>I do want to emphasize that it was July 4th weekend, and this hotel (&amp; several others) were completely full.  That said, I feel that a hotel in this price range should be more prepared to deal with the extra work load required to handle these situations. 
+The front desk was very friendly and  welcoming.  They accidentally gave us the wrong room but quickly caught the error and fixed it before I made it back down to the lobby.  
+Our (minor) issues were with housekeeping and breakfast. 
+Rooms were very clean, and the linens looked and smelled fresh. We had to ask for more washcloths from the front desk because we only had 2 for a double queen room. We were surprised to find our room not cleaned when we returned the next afternoon at 2:45. Maybe they were understaffed or start their duties later than most hotels because they were still working at 5:30 when we left for dinner.  When we arrived back that night, the room was put back in order, and they had restocked 2 more washcloths but not enough towels.  Too tired to go to the front desk at 10 pm, so we just let it go. 
+Breakfast was frustrating and stressful.  The maze-like layout of the food bar and the close proximity of the tables and chairs causes traffic jams if there are more than 20 people trying to get food and drinks.  There appeared...I do want to emphasize that it was July 4th weekend, and this hotel (&amp; several others) were completely full.  That said, I feel that a hotel in this price range should be more prepared to deal with the extra work load required to handle these situations. The front desk was very friendly and  welcoming.  They accidentally gave us the wrong room but quickly caught the error and fixed it before I made it back down to the lobby.  Our (minor) issues were with housekeeping and breakfast. Rooms were very clean, and the linens looked and smelled fresh. We had to ask for more washcloths from the front desk because we only had 2 for a double queen room. We were surprised to find our room not cleaned when we returned the next afternoon at 2:45. Maybe they were understaffed or start their duties later than most hotels because they were still working at 5:30 when we left for dinner.  When we arrived back that night, the room was put back in order, and they had restocked 2 more washcloths but not enough towels.  Too tired to go to the front desk at 10 pm, so we just let it go. Breakfast was frustrating and stressful.  The maze-like layout of the food bar and the close proximity of the tables and chairs causes traffic jams if there are more than 20 people trying to get food and drinks.  There appeared to be 2 employees working in that area, but with the high occupancy that day, they needed at least 4. We grabbed coffee (which was almost empty) and headed to McDonald's drive thru. The situation was no better the next morning, so we saved ourselves the frustration. We chose to stay in Texas City due to the ridiculously high hotel rates in Galveston. We still feel like the rates were high for this hotel chain, but compared to over $170/night at a sketchy Motel 6 in Galveston, I shouldn't complain.  We might consider staying here again if it's off-season and they aren't filled to capacity. MoreShow less</t>
+  </si>
+  <si>
+    <t>I do want to emphasize that it was July 4th weekend, and this hotel (&amp; several others) were completely full.  That said, I feel that a hotel in this price range should be more prepared to deal with the extra work load required to handle these situations. 
+The front desk was very friendly and  welcoming.  They accidentally gave us the wrong room but quickly caught the error and fixed it before I made it back down to the lobby.  
+Our (minor) issues were with housekeeping and breakfast. 
+Rooms were very clean, and the linens looked and smelled fresh. We had to ask for more washcloths from the front desk because we only had 2 for a double queen room. We were surprised to find our room not cleaned when we returned the next afternoon at 2:45. Maybe they were understaffed or start their duties later than most hotels because they were still working at 5:30 when we left for dinner.  When we arrived back that night, the room was put back in order, and they had restocked 2 more washcloths but not enough towels.  Too tired to go to the front desk at 10 pm, so we just let it go. 
+Breakfast was frustrating and stressful.  The maze-like layout of the food bar and the close proximity of the tables and chairs causes traffic jams if there are more than 20 people trying to get food and drinks.  There appeared...I do want to emphasize that it was July 4th weekend, and this hotel (&amp; several others) were completely full.  That said, I feel that a hotel in this price range should be more prepared to deal with the extra work load required to handle these situations. The front desk was very friendly and  welcoming.  They accidentally gave us the wrong room but quickly caught the error and fixed it before I made it back down to the lobby.  Our (minor) issues were with housekeeping and breakfast. Rooms were very clean, and the linens looked and smelled fresh. We had to ask for more washcloths from the front desk because we only had 2 for a double queen room. We were surprised to find our room not cleaned when we returned the next afternoon at 2:45. Maybe they were understaffed or start their duties later than most hotels because they were still working at 5:30 when we left for dinner.  When we arrived back that night, the room was put back in order, and they had restocked 2 more washcloths but not enough towels.  Too tired to go to the front desk at 10 pm, so we just let it go. Breakfast was frustrating and stressful.  The maze-like layout of the food bar and the close proximity of the tables and chairs causes traffic jams if there are more than 20 people trying to get food and drinks.  There appeared to be 2 employees working in that area, but with the high occupancy that day, they needed at least 4. We grabbed coffee (which was almost empty) and headed to McDonald's drive thru. The situation was no better the next morning, so we saved ourselves the frustration. We chose to stay in Texas City due to the ridiculously high hotel rates in Galveston. We still feel like the rates were high for this hotel chain, but compared to over $170/night at a sketchy Motel 6 in Galveston, I shouldn't complain.  We might consider staying here again if it's off-season and they aren't filled to capacity. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r492876377-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>492876377</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Decent place to stay convenient for cruise</t>
+  </si>
+  <si>
+    <t>Stayed here with no advance reservation after booking with a hotel that was awful (left without staying the night).  Fairfield Inn was a perfect last minute choice.  They were next door to the car rental place and convenient location.  Everything was clean. The bed was comfortable.  The indoor pool was nice.  Breakfast had a good selection but extremely busy (hotel was sold out after our room). I would recommend them as a great stop for the Galveston cruise terminal.  Uber to the pier was about $20 (vs. taxi of $40).MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here with no advance reservation after booking with a hotel that was awful (left without staying the night).  Fairfield Inn was a perfect last minute choice.  They were next door to the car rental place and convenient location.  Everything was clean. The bed was comfortable.  The indoor pool was nice.  Breakfast had a good selection but extremely busy (hotel was sold out after our room). I would recommend them as a great stop for the Galveston cruise terminal.  Uber to the pier was about $20 (vs. taxi of $40).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r489881291-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -369,6 +527,54 @@
     <t>A friend and I stayed in the Fairfield Marriott Texas City. The motel and ground were clean, attractive and well maintained. The room was clean, lovely and the bed was comfortable. The breakfast selection was diverse and tasty. The property was quiet and the atmosphere was relaxed. The staff was pleasant '. We enjoyed our stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r480040610-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>480040610</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Difficult Location, but great stay</t>
+  </si>
+  <si>
+    <t>This location is off of I-35 and a little difficult to get in and out of if you are planning on doing a lot of site-seeing.  It was easier to get into Texas City than Galveston.  We stayed here before a cruise and it was a quick trip to the cruise port in Galveston with easy traffic.  Bedding and room were comfortable, noise level was good, and room was clean.  Breakfast was below average, and even though we were some of the first ones there, everything looked pretty bare.  If we had waited there might have been more put out, but we were ready to get to the port! I would definitely stay here again for a pre-cruise night stay, even though you are outside of Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>This location is off of I-35 and a little difficult to get in and out of if you are planning on doing a lot of site-seeing.  It was easier to get into Texas City than Galveston.  We stayed here before a cruise and it was a quick trip to the cruise port in Galveston with easy traffic.  Bedding and room were comfortable, noise level was good, and room was clean.  Breakfast was below average, and even though we were some of the first ones there, everything looked pretty bare.  If we had waited there might have been more put out, but we were ready to get to the port! I would definitely stay here again for a pre-cruise night stay, even though you are outside of Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r475421645-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>475421645</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Convenient choice for a pre-cruise stay</t>
+  </si>
+  <si>
+    <t>Located right off I-45 in parking lot of Mall of the Mainland &amp; much cheaper than hotels on Galveston island. 15 minute drive to cruise terminal. 2 room suite layout – bedroom with minikitchen (MW &amp; minifridge), sitting area with desk &amp; sofa. Be prepared to be awakened by shift workers getting off work late. No walk able restaurants – closets are a   hike across mall parking lot (Beyond Burger or Olive Garden).Front desk staff both evening &amp; early morning were much better than usual or expected - a pleasant surprise!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Located right off I-45 in parking lot of Mall of the Mainland &amp; much cheaper than hotels on Galveston island. 15 minute drive to cruise terminal. 2 room suite layout – bedroom with minikitchen (MW &amp; minifridge), sitting area with desk &amp; sofa. Be prepared to be awakened by shift workers getting off work late. No walk able restaurants – closets are a   hike across mall parking lot (Beyond Burger or Olive Garden).Front desk staff both evening &amp; early morning were much better than usual or expected - a pleasant surprise!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r469320641-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -444,6 +650,45 @@
     <t>Very conveniently located for an overnight stay before boarding a cruise ship in Galveston. Pricing is better than on the island with good access to any last minute purchases. Hotel is well maintained and representative of chains in the price range. What makes this location really stand out is the great staff! They could not be more friendly and welcoming! Questions are quickly answered, small issues dealt with, and whole time the goal is to make sure the customer has the best possible experience. Definitely planning another stay the next time we cruise from Galveston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r455438720-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>455438720</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shackelford </t>
+  </si>
+  <si>
+    <t>I love this place!!  The hotel is clean and the service is fantastic!  There was a super cute elephant made of towels on my bed with a monogrammed chocolate bar!!  The location is right of I 45 and just a few miles away from the outlet mall.We will definitely be back soon!'</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r452065515-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>452065515</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>A gem highly recommended</t>
+  </si>
+  <si>
+    <t>Warm friendly welcome, newer well maintained facilities, good room with comfortable bed, good breakfast.  Highly recommended.  The staff was the best we have encountered, great vibe.  Quiet location, good parking, free USA Today.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Warm friendly welcome, newer well maintained facilities, good room with comfortable bed, good breakfast.  Highly recommended.  The staff was the best we have encountered, great vibe.  Quiet location, good parking, free USA Today.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r438193555-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -498,6 +743,42 @@
     <t>I booked a stay at this hotel through a website, it was messed up, Tyler, manager on location, took care of it quickly, got me a better room, and I loved it. It was so close to Galveston. I had a great vacation thank you very much!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r425137788-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>425137788</t>
+  </si>
+  <si>
+    <t>Highly recommendsd</t>
+  </si>
+  <si>
+    <t>Stay here quite a bit for work travel and I have to say I look forward to trips back to Texas City.  Friendly staff, clean rooms, close to restaurants, and beach.  A little fishing on a business trip never hurt anyone.  Check them out!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r417303952-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>417303952</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>A place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here on way to Galveston for a cruise,the hotel is only 22 min to port,the hotel is a easy on and off freeway,but it can be hard to find way into parking g lot becuase it's at a mall. Pool is saltwater and no spa MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here on way to Galveston for a cruise,the hotel is only 22 min to port,the hotel is a easy on and off freeway,but it can be hard to find way into parking g lot becuase it's at a mall. Pool is saltwater and no spa More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r416606262-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -570,6 +851,39 @@
     <t>This is a standard Fairfield Inn. The staff was quite pleasant when we arrived on a broiling-hot Texas afternoon. The rooms are comfortable. Soap and shampoo is in the room and a variety of other amenities are at the front desk on request. There also is a tiny "shopping mart" with a few microwaveable food items and other necessities. Since there is a big-box store within a mile, I would suggest you go there first. The indoor pool was fantastic! Clean and very comfortable on a hot day. The breakfast was standard serve-yourself with waffles, cereals, etc. The eggs at any of these business-class hotels are not that great, but there was enough other items to satisfy me. My traveling companion liked the waffle iron was in the shape of Texas. The business center is right across from the front desk. The lobby and breakfast area were ice-cold. There is a restaurant right next door, but it appears to be closed. There are plenty of other eating options in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r387032649-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>387032649</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Away Time</t>
+  </si>
+  <si>
+    <t>This hotel was very nice.  Everything was neat and clean.  Staff was polite and friendly.  Our room was ready when we arrived and checked in without any issues.  Had an air conditioner problem which was promptly corrected the next day.  The indoor pool was a plus.  Breakfast had a good selection and extended hours on the weekend. Refrigerator in room but no microwave.  Had to go to the breakfast area to warm up our leftovers for lunch.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r379716951-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>379716951</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Awesome Staff</t>
+  </si>
+  <si>
+    <t>Hotel in the midst of renovations; however, the professionalism and friendliness of the staff made up for the noise inconveniences. My family stayed five nights and ALL of the desk, housekeeping and hospitality staff was awesome! There was a full breakfast (not continental) every morning and the nice lady putting it out was very attentive to our needs. The beds were oh so comfy and housekeeping very flexible in cleaning our rooms when we slept in. We'll stay here again when in town for the next graduation.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r375270552-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -648,6 +962,48 @@
     <t>We arrived at this Fairfield to a near empty mall parking lot (next door), lots of signs of construction at the hotel, and more than a few windows open (never a good sign). The hotel lobby in disarray, but Crystal at front desk was a welcome smiling face. All rooms that are used have been renovated and the breakfast bar under construction. It will probably be fine but glad we used points for a free night stay before our cruise. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r356323114-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>356323114</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Ok but still needs LOTS of improvement!</t>
+  </si>
+  <si>
+    <t>Negatives:  With all the construction going on I wish I could say this was an enjoyable hotel stay. It seems the building workers are not accomplishing their labor in a timely manner. Other parts of this hotel seems to be falling apart. The rates are $120 nightly!Really?  The rooms was not as great as some of the marriotts we have stayed. (bathtub was a little dingy, mosquitos, sheets &amp; towels dingy, air conditioner system was gross, swimming pool closed, cable tv shut off, loud music from worker cars and breakfast need help!) Also I think the entire staff need a little more training in professionalism..their uniform/attire and grooming. Positives:  The location was great! near Galveston and staff was energizedMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Negatives:  With all the construction going on I wish I could say this was an enjoyable hotel stay. It seems the building workers are not accomplishing their labor in a timely manner. Other parts of this hotel seems to be falling apart. The rates are $120 nightly!Really?  The rooms was not as great as some of the marriotts we have stayed. (bathtub was a little dingy, mosquitos, sheets &amp; towels dingy, air conditioner system was gross, swimming pool closed, cable tv shut off, loud music from worker cars and breakfast need help!) Also I think the entire staff need a little more training in professionalism..their uniform/attire and grooming. Positives:  The location was great! near Galveston and staff was energizedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r355597622-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>355597622</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>REAALY FRIENDLY!</t>
+  </si>
+  <si>
+    <t>Friendly staff, quiet location, handy for two, nearby restaurants.  As a Rewards Card holder, I checked in via the Mobile App.  When we arrived, our room was ready and the key handed to us.  Excellent service.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r352182875-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -702,6 +1058,51 @@
     <t>We had a double room for 4 + a baby.  The lady at the front desk was wonderful when we checked in, our room was very clean and comfortable.  The beds were comfortable and enjoyed our breakfast.  We were there only over night on our way to a cruise.  The check out morning we were notified that the cruise ship was delayed and when I went to ask for late check out, the lady at the front desk  said to stay as long as we needed as she did not want us to be out in the weather with the baby.  This kindness is one of the main reason  I keep staying at this hotel, the staff is outstanding.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r342981968-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>342981968</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Front desk staff good, but room stunk</t>
+  </si>
+  <si>
+    <t>Hotel room had a persistent "urine" smell that didn't go away when staff came into clean room after I complained.. I am glad I wasn't here for more than 2 nights.   Desk staff was helpful,.  Descent location.  MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Hotel room had a persistent "urine" smell that didn't go away when staff came into clean room after I complained.. I am glad I wasn't here for more than 2 nights.   Desk staff was helpful,.  Descent location.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r334144103-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>334144103</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>crystal who works front desk</t>
+  </si>
+  <si>
+    <t>on 12/18/2015 I checked in and all was well so until I went to my room and put my key in and it did not work so I went back down to the front desk to let crystal know about it so she took my keys and reprogrammed them for me and gave them back to me but what got me was after she did that she came from behind the front desk and walked with me to my room just to make sure my keys worked so if they didn't she could run down stairs and do what she needed to do without me carrying all my things back down to the lobby again she had a outgoing personality and I like that in people keep up the great workMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>on 12/18/2015 I checked in and all was well so until I went to my room and put my key in and it did not work so I went back down to the front desk to let crystal know about it so she took my keys and reprogrammed them for me and gave them back to me but what got me was after she did that she came from behind the front desk and walked with me to my room just to make sure my keys worked so if they didn't she could run down stairs and do what she needed to do without me carrying all my things back down to the lobby again she had a outgoing personality and I like that in people keep up the great workMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r331473027-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -717,9 +1118,6 @@
     <t>I had occasion to stay in the Fairfield Inn in Texas City while attending a funeral.  We had left home early that morning and needed to change into our "funeral clothes".  Although it was before check-in time, they were most accommodating.  Erica Nunn, at the front desk, was kind, friendly and is certainly the kind of employee every company would hope to employ.  Tyler, who I believe might be the manager, was another true find.  The property was undergoing updating.  Out sink was not working but it was fixed immediately after reporting it.  The cleaning staff was very helpful when I asked for directions around town.  Always had smiles on their faces and did everything they could to make our stay a pleasant one.  I would stay there again in a heartbeat.  Good customer service is the key to any successful business.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>I had occasion to stay in the Fairfield Inn in Texas City while attending a funeral.  We had left home early that morning and needed to change into our "funeral clothes".  Although it was before check-in time, they were most accommodating.  Erica Nunn, at the front desk, was kind, friendly and is certainly the kind of employee every company would hope to employ.  Tyler, who I believe might be the manager, was another true find.  The property was undergoing updating.  Out sink was not working but it was fixed immediately after reporting it.  The cleaning staff was very helpful when I asked for directions around town.  Always had smiles on their faces and did everything they could to make our stay a pleasant one.  I would stay there again in a heartbeat.  Good customer service is the key to any successful business.More</t>
   </si>
   <si>
@@ -774,6 +1172,48 @@
     <t>The hotel is clean. Located next to what used to be a mall, now is closed, so the area feels not secure. The good thing about this hotel, is located close to the new Galveston / Houston Tanger Outlets.Also the hotel needs some automatic doors.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r314505198-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>314505198</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Short distance to Galveston</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay. Large clean room. Friendly staff. Breakfast is so-so, but what I expect when it is included "free" with an overnight stay.  The room always seemed damp with no humidity control. I assume this is due to an older model floor-standing A/C unit. Easy access to Galveston Island. I'd stay here again.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r309998693-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>309998693</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Average - Renovate NOW - Mildew Musky Smell</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here on evening on free night voucher from my Chase Marriott Card. Afterwards I considered it a waste since I could have used for higher categories and this place was very VERY outdated. Everything was as expected, except for the Musky mildewy smell in our room. When we walked in the A/C was set at 60! It was freezing, and as a frequent traveler, this is the first sign of trying to cover up smells in my opinion. We thought we could get used to it after a while but it was still very heavy and wreaked havoc on my allergic rhinus sinitus. I would not recommend or stay here again until the place is fully renovated. There is much advertising all around the hotel however, I see no results or starting of the "Stunning New Spaces." The place is clean and great service is offered for a one nighter. I gave a three circle because I have had worse. It sits right next to the closed Mall of the Mainland. Thank you for reading, if it helps give a thumbs up. As usual, a video of the room on my youtube channel.RetiredArmyRANGERMoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here on evening on free night voucher from my Chase Marriott Card. Afterwards I considered it a waste since I could have used for higher categories and this place was very VERY outdated. Everything was as expected, except for the Musky mildewy smell in our room. When we walked in the A/C was set at 60! It was freezing, and as a frequent traveler, this is the first sign of trying to cover up smells in my opinion. We thought we could get used to it after a while but it was still very heavy and wreaked havoc on my allergic rhinus sinitus. I would not recommend or stay here again until the place is fully renovated. There is much advertising all around the hotel however, I see no results or starting of the "Stunning New Spaces." The place is clean and great service is offered for a one nighter. I gave a three circle because I have had worse. It sits right next to the closed Mall of the Mainland. Thank you for reading, if it helps give a thumbs up. As usual, a video of the room on my youtube channel.RetiredArmyRANGERMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r305385928-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -831,6 +1271,45 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r282758768-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>282758768</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Older, but otherwise good</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn is the older style, not one of the remodeled ones, and the age shows a bit, but that's minor.  The hotel was clean, bed was comfortable, staff was GREAT!  We attempted to go to the pool, but even in June, the pool was a little cold.  The hot tub was  not real hot, but warm enough for us to splash around in.  The hot tub had a strange yucky color to it, but it wasn't bad enough to stop us from getting in.  We were there kind of late and there were no towels, but housekeeping brought us some.  There is a microwave in the room, but no fridge.  It was a bummer when we asked the front desk for a fridge and were told that they had a lot of long term guests and they had all of them.  The good overshadows all the bad though.  Save yourself a buck from ridiculous Galveston prices, drive a few miles and stay here.  We were very happy we decided to do that, and would no doubt stay here again.  Oh - one more thing, it seemed like almost every time we came and went, there was a cop sitting in the mall parking lot right near the entrance into the hotel.  We welcomed seeing that cop.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn is the older style, not one of the remodeled ones, and the age shows a bit, but that's minor.  The hotel was clean, bed was comfortable, staff was GREAT!  We attempted to go to the pool, but even in June, the pool was a little cold.  The hot tub was  not real hot, but warm enough for us to splash around in.  The hot tub had a strange yucky color to it, but it wasn't bad enough to stop us from getting in.  We were there kind of late and there were no towels, but housekeeping brought us some.  There is a microwave in the room, but no fridge.  It was a bummer when we asked the front desk for a fridge and were told that they had a lot of long term guests and they had all of them.  The good overshadows all the bad though.  Save yourself a buck from ridiculous Galveston prices, drive a few miles and stay here.  We were very happy we decided to do that, and would no doubt stay here again.  Oh - one more thing, it seemed like almost every time we came and went, there was a cop sitting in the mall parking lot right near the entrance into the hotel.  We welcomed seeing that cop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r274815854-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>274815854</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Excellent service &amp; comfortable beds with brand new linens. The staff is above polite. The breakfast is fresh and the eating area is really clean. Check in and check out is done within minuets and you are on your way. Pool is always crystal clear and the room is always kept clean.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r260214466-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1373,57 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r217868335-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>217868335</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed two nights at this hotel.  It is right beside I-45 and a short distance from the Tanger Outlet Mall.  A large city mall is by this property and is mostly closed.  Likes: decent continental breakfast, comfortable beds, roomy area, nice pool, staff exceedingly friendly.  Dislikes:  not a large area for continental breakfast, by the interstate and when the air kicks off is definitely noticeable, driveway is poorly located (not off the frontage road, which is weird).  Personally, we had a connecting room (which I had no idea about until we were in the room) and the neighboring family beside us was VERY inconsiderate and loud.  We didn't get any peace and quiet until after midnight.  The hotel was pretty much booked up (I had asked about upgrading to a King from a Queen and was told there was nothing else available) so we dealt with it (and it's not really the hotel's fault).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>We stayed two nights at this hotel.  It is right beside I-45 and a short distance from the Tanger Outlet Mall.  A large city mall is by this property and is mostly closed.  Likes: decent continental breakfast, comfortable beds, roomy area, nice pool, staff exceedingly friendly.  Dislikes:  not a large area for continental breakfast, by the interstate and when the air kicks off is definitely noticeable, driveway is poorly located (not off the frontage road, which is weird).  Personally, we had a connecting room (which I had no idea about until we were in the room) and the neighboring family beside us was VERY inconsiderate and loud.  We didn't get any peace and quiet until after midnight.  The hotel was pretty much booked up (I had asked about upgrading to a King from a Queen and was told there was nothing else available) so we dealt with it (and it's not really the hotel's fault).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r215347118-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>215347118</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Decent place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip to Galveston as the prices were much lower than on the island. It's about a 30 minute drive to the beach from here depending on traffic. There isn't much in the area but the hotel is pretty nice and the staff was very accommodating of our needs. If we come to Galveston again I would probably spend the extra to stay on the island though. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded July 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip to Galveston as the prices were much lower than on the island. It's about a 30 minute drive to the beach from here depending on traffic. There isn't much in the area but the hotel is pretty nice and the staff was very accommodating of our needs. If we come to Galveston again I would probably spend the extra to stay on the island though. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r215050537-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -930,9 +1460,6 @@
     <t>First this review is for a business trip. If you are looking for a low cost family trip other reviews will be better. The hotel suffered from the moisture that some gulf hotels do giving it a wet and musty feeling. The front desk was unintended one night about 9:30 and I had to wait a couple of minutes to get my key re-swiped. There was noise from the floor above. Not as nice as other hotels at this level.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded July 14, 2014</t>
   </si>
   <si>
@@ -957,6 +1484,39 @@
     <t>The hotel is conveniently located between Galveston and Houston. The rates are reasonable. The staff very helpful. The breakfast is great . Love the indoor poor. My family had a good time. We definitely coming back. Very close to the freeway and restaurants, Walmart and Samsclub.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r209581949-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>209581949</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>My wife and I wanted to go to Galveston for the summer.  Well surprise surprise all hotels cost well over $200 for a 3 plus star hotel.  This hotel is not a 5 star hotel but is a great 3 star or middle/low 4 star hotel Pros1. PRICE $130 per night in June2. Clean hotel3. Nice indoor pool and hot tub4. Very nice breakfast 5. Pleanty of places to eat near byCons1. Ice dispenser is only on the 1st floor2. Getting to the hotel is confusing (you have to go through the mall no access of main road)3. Some of the Clientele is a bit ghetto (smoking weed in the parking lot) (Guess that goes with the price)This hotel was perfect for my family on a budget.  Close enough to Galveston yet at a great price.  If you have to money pick a different hotel, if you are on a budget and are going to use this hotel just to sleep because you are at the beach all day this is the perfect hotel for you.I will go back to this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I wanted to go to Galveston for the summer.  Well surprise surprise all hotels cost well over $200 for a 3 plus star hotel.  This hotel is not a 5 star hotel but is a great 3 star or middle/low 4 star hotel Pros1. PRICE $130 per night in June2. Clean hotel3. Nice indoor pool and hot tub4. Very nice breakfast 5. Pleanty of places to eat near byCons1. Ice dispenser is only on the 1st floor2. Getting to the hotel is confusing (you have to go through the mall no access of main road)3. Some of the Clientele is a bit ghetto (smoking weed in the parking lot) (Guess that goes with the price)This hotel was perfect for my family on a budget.  Close enough to Galveston yet at a great price.  If you have to money pick a different hotel, if you are on a budget and are going to use this hotel just to sleep because you are at the beach all day this is the perfect hotel for you.I will go back to this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r209330132-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>209330132</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Accommodating and close proximity to Galveston</t>
+  </si>
+  <si>
+    <t>We were there as a group 06/05 - 07/2014.  Friendly staff including Chris both mornings at breakfast.  She handled an early breakfast perfectly our first morning as well as our departure morning.  Kudos to Mayesha who found and is returning a hat left behind.  Room was clean, neat, with expected amenities; staff interactions were always polite and pleasant.  Service and distance to Galveston made this hotel a great value for us.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r208491603-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1586,57 @@
     <t>We booked a one night stay on 04/11/2014 and I booked the room through what I thought was the Hotel website. When we checked in the young lady at the front desk was very nice and helpful. When got inside the room and I pulled the covers back on the bed and you could visibly see that the bedding had not been changed. I immediately call the front desk and the same young lady that checked us in quickly came and changed the bedding for us, if it had not been for her we would have left right then she was the hotels saving grace. Upon checking out the next day, I was handed my receipt and that address that I had entered when booking the was not the address on my receipt, so I asked why was this and I was told that since it was booked through Priceline this is something they do on their end, so she was nice enough to get the manager to explain this to me and when the manager came to the front she quickly had an attitude and told me that she does not make the rules, this is just what happens when you book through price line, so I asked for her manager and she tells me that there was not one she was the manager. I then firmly asked her for the owner and or over all hotel manager she...We booked a one night stay on 04/11/2014 and I booked the room through what I thought was the Hotel website. When we checked in the young lady at the front desk was very nice and helpful. When got inside the room and I pulled the covers back on the bed and you could visibly see that the bedding had not been changed. I immediately call the front desk and the same young lady that checked us in quickly came and changed the bedding for us, if it had not been for her we would have left right then she was the hotels saving grace. Upon checking out the next day, I was handed my receipt and that address that I had entered when booking the was not the address on my receipt, so I asked why was this and I was told that since it was booked through Priceline this is something they do on their end, so she was nice enough to get the manager to explain this to me and when the manager came to the front she quickly had an attitude and told me that she does not make the rules, this is just what happens when you book through price line, so I asked for her manager and she tells me that there was not one she was the manager. I then firmly asked her for the owner and or over all hotel manager she would not give me a phone number just an email that did not work. I will not ever stay here again and all of my relatives that I recommend to stay here when they are down will not be staying here either.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r198856296-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>198856296</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Below average property</t>
+  </si>
+  <si>
+    <t>Staff was very nice and helpful but hotel needs serious renovation. Lobby couches stained and torn, elevator dirty, loud and old, hallway carpet very worn. Rooms just adequate. Not a great area, located next to closed down mall. New furniture, carpets and paint to go with thou rough scrubbing would help. For a Marriott property, very disappointed and won't stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Staff was very nice and helpful but hotel needs serious renovation. Lobby couches stained and torn, elevator dirty, loud and old, hallway carpet very worn. Rooms just adequate. Not a great area, located next to closed down mall. New furniture, carpets and paint to go with thou rough scrubbing would help. For a Marriott property, very disappointed and won't stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r196450842-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>196450842</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>Great people.  Below Average property</t>
+  </si>
+  <si>
+    <t>The people at this hotel are very, very nice and helpful.  However, the property is in need of an upgrade and overhaul.  If you are looking for a hotel close to Texas City, I would suggest looking in League City or Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded March 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2014</t>
+  </si>
+  <si>
+    <t>The people at this hotel are very, very nice and helpful.  However, the property is in need of an upgrade and overhaul.  If you are looking for a hotel close to Texas City, I would suggest looking in League City or Galveston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r192597500-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1703,48 @@
     <t>The hotel itself was average-- nothing about my room, the pool, or the breakfast was anything special-- but the staff was amazing. The women at the front desk were very friendly whenever we walked by. My first night in I realized my phone charger had broken and asked where I could buy a new one nearby-- the woman working immediately let me borrow hers so I could get a charge before I left for the day.  The women working were always smiling and extremely friendly.  I can almost say I'll miss them.    More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r186939429-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>186939429</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>Friendly People</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last month and I haven't seen service like this in a long time. I was lost and I called the hotel. The person who answered the phone gave me perfect directions and made my night easy. Then they gave me recommendations for a great restaurant near by. Everyone was friendly and made me feel welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last month and I haven't seen service like this in a long time. I was lost and I called the hotel. The person who answered the phone gave me perfect directions and made my night easy. Then they gave me recommendations for a great restaurant near by. Everyone was friendly and made me feel welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r182288094-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>182288094</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>Always friendly staff.  Very clean rooms and property. Hearty, fresh breakfast.  We always stay here when we head down to visit.  Easy on and off the freeway.  Even when crowded at breakfast, the staff keeps things picked up and replenished.  Just a comfortable stay every time!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r180994608-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1808,45 @@
     <t xml:space="preserve">Clean hotel, with comfortable beds, and just a short drive to Kemah Pier and Galveston pier. Stay here instead of an overpriced two star hotel on Galveston Island, and use save your money to enjoy your vacation. Friendly staff, safe location and near a mall--in case you need anything. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r170962752-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>170962752</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Good but dated</t>
+  </si>
+  <si>
+    <t>The staff was very friendly, rooms were nice and clean. Is in need of a little updating. It was an option within driving distance to Galveston but better rates than Galveston area. The area the hotel is located is a little remote from activity, but that's not all bad either.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2013</t>
+  </si>
+  <si>
+    <t>The staff was very friendly, rooms were nice and clean. Is in need of a little updating. It was an option within driving distance to Galveston but better rates than Galveston area. The area the hotel is located is a little remote from activity, but that's not all bad either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r169924186-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>169924186</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Awesome Customer Service</t>
+  </si>
+  <si>
+    <t>We have stayed at a bunch of hotels but NONE come close to having the kind of customer service we had here. Each and EVERY single employee was cheerful, helpful and all around just plain awesome. If we ever need a room in this area again, we will DEFINATLEY stay here. Keep up the good work, y'all!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r167624314-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1895,48 @@
     <t>Really nice hotel.  Was very clean, breakfast was fine and it's just 15 min from the port. Best of all affordable for just a one night stay. The front desk clerk Gloria was very nice and helpful. Will come again when leaving out of tx for cruise. Enjoyed dining at  this little mexican place Gingo's the food was awesome and the drinks were really strong! Wish we had one in my city...lol</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r158317713-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>158317713</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Great location for a cruise</t>
+  </si>
+  <si>
+    <t>This hotel is next to plenty of shopping for cruise essentials. It adjoins the parking lot of Mall of the Mainland. It is about a thirty minute drive to the Galveston cruise terminal which isn't too bad. The price is much less than you'd expect. Very quiet so you can get a good night's rest before your cruise.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r157744654-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>157744654</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Value</t>
+  </si>
+  <si>
+    <t>Great staff, good hotel. I mean, the staff remembered my name after one day. And the breakfast bar was good, too. I just wish it were in a better location, rather than its site next to a dead mall. Seriously, the place was like a ghost town.MoreShow less</t>
+  </si>
+  <si>
+    <t>TexasCityFF_GM, General Manager at Fairfield Inn &amp; Suites Texas City, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Great staff, good hotel. I mean, the staff remembered my name after one day. And the breakfast bar was good, too. I just wish it were in a better location, rather than its site next to a dead mall. Seriously, the place was like a ghost town.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r156588168-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1218,9 +1952,6 @@
     <t>I am from Savannah Ga let me tell you about our stay at the Fairfield Inn in Texascity, Tx  i came with my 2 lil girls  the Manager was awsome and  if you stay here ask for Ms Van and Ms Gloria  WE HAD SUCH A GREAT  vacation while visiting my husband as hes in the US MARINES it was a wonderful pllace to stay and talk about clean...its the cleanest placeVERY QUIET AREA IN THIS HOTEL  AND COMFY BEDS AND CHECKIN WAS AWSOME!!!  and breakfast was awsome hot and cold to choose from  Miss Pat made sure the breakfast was awsome too she is only person i know that wipes tables and counters so much that you could eat off the counters, i loved staying here , i felt like i was family at this awsome hotel!! i also asked where i could do laundry and Miss Van gave me a map of Texascity so was i happy? YOU BETTER BELEIVE IT! WHY WOULD I EVER WANT TO STAY AT A HAMPTON OR A HOLIDAYINN  WHEN I GET BEST HOTEL EMPLOYEES AND THE CLEANEST HOTEL RIGHT HERE AT THE FAIRFIELD INN IN TEXASCITY, THANK YOU AGAIN GREAT JOB WELL DONE!!  WE WILL CERTAINLY BE BACK ONCE A MONTH OR EVERY OTHER MONTH WHILE SEEING MY HUSBAND.   Debbie Livingston of GAMoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>I am from Savannah Ga let me tell you about our stay at the Fairfield Inn in Texascity, Tx  i came with my 2 lil girls  the Manager was awsome and  if you stay here ask for Ms Van and Ms Gloria  WE HAD SUCH A GREAT  vacation while visiting my husband as hes in the US MARINES it was a wonderful pllace to stay and talk about clean...its the cleanest placeVERY QUIET AREA IN THIS HOTEL  AND COMFY BEDS AND CHECKIN WAS AWSOME!!!  and breakfast was awsome hot and cold to choose from  Miss Pat made sure the breakfast was awsome too she is only person i know that wipes tables and counters so much that you could eat off the counters, i loved staying here , i felt like i was family at this awsome hotel!! i also asked where i could do laundry and Miss Van gave me a map of Texascity so was i happy? YOU BETTER BELEIVE IT! WHY WOULD I EVER WANT TO STAY AT A HAMPTON OR A HOLIDAYINN  WHEN I GET BEST HOTEL EMPLOYEES AND THE CLEANEST HOTEL RIGHT HERE AT THE FAIRFIELD INN IN TEXASCITY, THANK YOU AGAIN GREAT JOB WELL DONE!!  WE WILL CERTAINLY BE BACK ONCE A MONTH OR EVERY OTHER MONTH WHILE SEEING MY HUSBAND.   Debbie Livingston of GAMore</t>
   </si>
   <si>
@@ -1269,6 +2000,42 @@
     <t>We arrived at about 3:30 and even though checkin is at 3 we had to wait over 30 minutes in the lobby for the room to be ready. The girl at the front desk offered us bottled water and said that they were short staffed. I can understand that happens sometimes so we may try again at some point. The room was standard, not all that big and the walls didn't seem to keep out any noise. The bathtub didn't drain very well.  The air conditioner/heater did not work at all. Breakfast was standard. For 1/3 less money the La Quinta is a much better deal for the same if not better quality of room and service. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r149335079-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>149335079</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Oh our aching backs!</t>
+  </si>
+  <si>
+    <t>Staff is great!  Typical Fairfield Inn though BUT the beds will leave your back aching in the morning.... no support!Very clean and quiet though.The staff checks on you to make sure everything is okay and very friendly!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r147277388-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>147277388</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>As a long distance commuter, I have spent weekday nights here for nearly one year. The hotel is great, but more importantly the staff are personable and accommodating. I highly recommend this Fairfield Inn.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r144972798-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1311,9 +2078,6 @@
     <t>The value on this hotel is the key. For the price compared to hotels in the area, you get what you pay for. The hotel wasn't awful, just sub-par for a Marriott property. The rooms were a little dated. Nothing appeared to be falling apart, just not in great condition. The bathroom had some cracks in the grout and poorly repaired drywall cracks as well. The shower pressure was pretty low. The halls and stairways had some... strange smell. Sort of like a chemical type smell. Not horrible and the rooms smelled fine.The breakfast was a good selection and again, the staff at breakfast were very helpful.One of the biggest annoyances was the traffic noise and the aircraft of some sort that started flying over around 7:30 AM. I slept well until that point, so the traffic noise wasn't too bad, but the planes were very loud and close when they did start flying.If I were in the area again, I'd definitely look for another place to stay.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>The value on this hotel is the key. For the price compared to hotels in the area, you get what you pay for. The hotel wasn't awful, just sub-par for a Marriott property. The rooms were a little dated. Nothing appeared to be falling apart, just not in great condition. The bathroom had some cracks in the grout and poorly repaired drywall cracks as well. The shower pressure was pretty low. The halls and stairways had some... strange smell. Sort of like a chemical type smell. Not horrible and the rooms smelled fine.The breakfast was a good selection and again, the staff at breakfast were very helpful.One of the biggest annoyances was the traffic noise and the aircraft of some sort that started flying over around 7:30 AM. I slept well until that point, so the traffic noise wasn't too bad, but the planes were very loud and close when they did start flying.If I were in the area again, I'd definitely look for another place to stay.More</t>
   </si>
   <si>
@@ -1341,6 +2105,48 @@
     <t>We stayed in room 304 and the smelled bad and windows had failed and were completely fogged up. Thought a place with the Marriot name would be held to a higher standard. Will never stay at a Fairfield again...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r137095643-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>137095643</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Good, clean hotel for a month+ stay</t>
+  </si>
+  <si>
+    <t>I stayed here for over a month for business in the Port of Texas City. The hotel was clean and the service very friendly and helpful. I arrived late in the evening and my room was waiting for me. My first impression of the hotel was the evening clerk Gloria who was exceedingly friendly and stayed that way the whole time I was there. She hooked me up with a refrigerator and microwave since my stay was so long.The room was clean and was maintained that way the whole time. The WiFi was free and signal strength decent on the top (3rd) floor. It was active every time I tried to use it. The continental breakfast was what you would expect and was included in the price. The indoor pool was small but often empty. The hot tub was nice after long work days.The location is convenient, right of I-45 and 10 minutes from the port. Galveston is 20 minutes away. Within walking distance there are a few good restaurants, the best being the Mexican place Gringos. Olive Garden, Beyond Burger and Ryan's (buffet) are also nearby.I'll stay again next time I'm in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for over a month for business in the Port of Texas City. The hotel was clean and the service very friendly and helpful. I arrived late in the evening and my room was waiting for me. My first impression of the hotel was the evening clerk Gloria who was exceedingly friendly and stayed that way the whole time I was there. She hooked me up with a refrigerator and microwave since my stay was so long.The room was clean and was maintained that way the whole time. The WiFi was free and signal strength decent on the top (3rd) floor. It was active every time I tried to use it. The continental breakfast was what you would expect and was included in the price. The indoor pool was small but often empty. The hot tub was nice after long work days.The location is convenient, right of I-45 and 10 minutes from the port. Galveston is 20 minutes away. Within walking distance there are a few good restaurants, the best being the Mexican place Gringos. Olive Garden, Beyond Burger and Ryan's (buffet) are also nearby.I'll stay again next time I'm in town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r136760430-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>136760430</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>Gloria, the Fairfield's Director of First Impressions (that what her title should be!!!) shouldn't be behind the Front Desk greeting Guests but should be out training and motivating other hotel employees.  She is a role model of hospitality!  I was greeted with a warm and friendly smile the first time and every time I encountered her.  In fact all the Front Desk staff were great be she is a stand out!  I had shipped quite a bit of test equipment to the hotel and it was already in my room when I got there, a first for me!  Usually I have to hunt my equipment down.  That one effort on the staff's part was greatly appreciated.The hotel itself seems to be in need of a renovation.  I could tell that it has been a bit since it's last but the housekeeping staff did a great job with what they have.  My room was clean, as were the hallways but I could tell things were getting worn out.  I would suggest that the breakfast buffet be expanded with a few more choices of pastries and some different fresh fruits but overall this is a decent place to stay.  When in the area again I will certainly stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Gloria, the Fairfield's Director of First Impressions (that what her title should be!!!) shouldn't be behind the Front Desk greeting Guests but should be out training and motivating other hotel employees.  She is a role model of hospitality!  I was greeted with a warm and friendly smile the first time and every time I encountered her.  In fact all the Front Desk staff were great be she is a stand out!  I had shipped quite a bit of test equipment to the hotel and it was already in my room when I got there, a first for me!  Usually I have to hunt my equipment down.  That one effort on the staff's part was greatly appreciated.The hotel itself seems to be in need of a renovation.  I could tell that it has been a bit since it's last but the housekeeping staff did a great job with what they have.  My room was clean, as were the hallways but I could tell things were getting worn out.  I would suggest that the breakfast buffet be expanded with a few more choices of pastries and some different fresh fruits but overall this is a decent place to stay.  When in the area again I will certainly stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r136155228-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1356,9 +2162,6 @@
     <t>I brought my Girl Scout troop here as it was an affordable option near to Galveston.  The rooms were clean, the lobby inviting and the pool was just right, but the absolute BEST was the staff.  Gloria welcomed us and helped us get settled even making my littlest scout feel welcome and special.  When the girls had problems popping popcorn in the lobby--she patiently helped them.  I had some work to do on the computer and heard her very helpful reviews of and directions to various food places.  The next morning, the staff was equally awesome.  This staff seems to value hospitality and it really shows.</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r134035833-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +2195,42 @@
     <t>The stay was great. Clean hotel, very friendly and helpful staff. Would defiantly would stay again!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r130949965-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>130949965</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed over Memorial Weekend. Clean rooms very friendly staff. Great place to stay...I recommend it. </t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r130350663-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>130350663</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>great  hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night prior to our cruise.  It's a very clean hotel in a great location with lots of restaurants in close proximity.  The staff was wonderful &amp; friendly. Since our cruise was out of Galveston, I originally looked for Galveston hotels, but they were PRICEY!! I believe we only paid $89 per night &amp; Texas City is very close to the Galveston cruise port...less than 30 minutes. Highly reccommend this hotel.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r128362655-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1452,6 +2291,42 @@
     <t>All of the employees at this motel must have taken a class on customer relations.  I have only found one other motel (in Leland NC) where the staff makes you feel like you are the only one staying there. (and I have stayed at many places in my years of travel)     Glory (or Gloria) at the desk and Pat at the breakfast bar are the best.  (I really should not single them out because everyone was great.)     Good things about this place:1)  Very comfortable bed2)  Heated swimming pool ( just like bath tub water)3)  Excellent breakfast bar (waffles - Jimmy Dean sandwiches etc.4)  Great water pressure in the shower 5)  Large flat screen TV6)  Overall - the place looks like it is new.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r125200253-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>125200253</t>
+  </si>
+  <si>
+    <t>02/25/2012</t>
+  </si>
+  <si>
+    <t>OK hotel but bugs in our room</t>
+  </si>
+  <si>
+    <t>Arrival experience:  Arrived late afternoon on a Saturday.  Excellent staff.   Room (general):  Clean carpet, mini-refrigerator provided on request, large flat screen TV, furniture was good. We had one major issue with this hotel and our room specifically- bugs!!!  We had ants, spiders, and a cockroach in our room. It was horrible.  Bathroom: Huge, in generally good condition. Lighting could have been a little better. Bed: Mattress was average, but linens were below average. Houskeeping:  below average   Restaurants: n/a We did have the free breakfast. It was good.  Bar: n/aGrounds: n/aPool: one tiny pool, but we did not use itStaff attitude/service:  The Saturday staff was excellent, but the staff on Sunday staff was bad. Took 10 minutes to get a copy of our bill. Front desk clerk went MIA. Perks for status: Platinum gift/points offered at check-in.  Also free gift of bottled water and nuts. Parking:  Ample free parking. Misc: Hard to find the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Arrival experience:  Arrived late afternoon on a Saturday.  Excellent staff.   Room (general):  Clean carpet, mini-refrigerator provided on request, large flat screen TV, furniture was good. We had one major issue with this hotel and our room specifically- bugs!!!  We had ants, spiders, and a cockroach in our room. It was horrible.  Bathroom: Huge, in generally good condition. Lighting could have been a little better. Bed: Mattress was average, but linens were below average. Houskeeping:  below average   Restaurants: n/a We did have the free breakfast. It was good.  Bar: n/aGrounds: n/aPool: one tiny pool, but we did not use itStaff attitude/service:  The Saturday staff was excellent, but the staff on Sunday staff was bad. Took 10 minutes to get a copy of our bill. Front desk clerk went MIA. Perks for status: Platinum gift/points offered at check-in.  Also free gift of bottled water and nuts. Parking:  Ample free parking. Misc: Hard to find the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r124023614-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>124023614</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Quiet, Convenient, all the right stuff!</t>
+  </si>
+  <si>
+    <t>Great choice if you need a place near Galvestion without the big price tag.  We really enjoyed our overnight stay here, lots of ammenities, free wireless internet, free breakfast (including fresh waffles and Jimmy Dean breakfast sandwiches), free coffee in the lobby and a coffee maker in the room, plus a free copy USA Today in the morning.  Everything was very fresh and clean, good beds and pillow choices. Attentive and welcoming staff ready to meet any needs.  Enjoyed the Ryan's Buffet next door!  Will be back when visiting Galvestion.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r120689530-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +2384,42 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r115320421-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>115320421</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>Nice Hotel.</t>
+  </si>
+  <si>
+    <t>I was completely satisfied with my 2 night stay here.  Fairfield Inns are typically an excellent value and this property did not dissapoint.  We experienced a very clean room, comfy bed, indoor pool which my kids loved, and good breakfast bar.  Our room and bathroom were nicely updated including a flat screen TV.  The staff were very friendly at check-in and during our stay.  The overall property is very clean and well-maintained throughout.  Breakfast had a good variety of choices and coffee is available all day.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r98599103-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>98599103</t>
+  </si>
+  <si>
+    <t>03/01/2011</t>
+  </si>
+  <si>
+    <t>Half way between Houston &amp; Galveston</t>
+  </si>
+  <si>
+    <t>This hotel was very nice.  There was many stores &amp; restaurants around it to visit.  The breakfast was really crowed on weekend but went smoothly.  The attendent was really nice that was on the weekend.  I only have one thing to say that bothered us was we were on the noisy side of the hotel which is the side facing the road.  I should have mentioned I wanted a quite room so I blame myself but have learned for the next stay.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r72645959-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +2474,42 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r29800182-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>29800182</t>
+  </si>
+  <si>
+    <t>05/11/2009</t>
+  </si>
+  <si>
+    <t>wonderful hotel</t>
+  </si>
+  <si>
+    <t>We atayed the first weekend in May, it was clean, the staff where very helpful and we had no problems.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r23086207-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>23086207</t>
+  </si>
+  <si>
+    <t>12/29/2008</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Our family (2 adults, 2 kids: age 6 and 8) stayed here while visiting family over Christmas holiday.  Everyone at the hotel was VERY friendly and courteous.  The kids loved the indoor pool.  Breakfast was a variety of foods, not a full kitchen, but muffins, cereal, and "make your own Texas waffles" which the kids enjoyed.  Would stay here again during winter months to enjoy the indoor pool.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r18326518-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
   </si>
   <si>
@@ -1615,6 +2562,45 @@
   </si>
   <si>
     <t>After a mediocre experience at a Galveston hotel last year, and finding absurd prices there this year, we decided to give this a try.  It's a short ride along I-45, and was very convenient.The hotel Web site said it was under renovation until 3/31/08, but we were not bothered by any construction noise.  Some storage units ate up spots in a small parking lot, but we were told there's no problem parking in the adjacent mall or restaurant.The room is a bit nicer than your typical Fairfield, and the property is clean.  Breakfast was what you'd expect.At the front desk, it's a bit iffy.  I called a day before we were due to see if any rooms were available that night.  First I was told yes, and quoted an AAA rate lower than what I had the following night.  When I asked if that rate was available for when I originally booked, I was put on hold, then told there were no rooms that night, after all.  An inquiry as to how that changed in 60 seconds got the response that she'd just checked with the other woman there.  Hmm...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r10869958-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>10869958</t>
+  </si>
+  <si>
+    <t>11/17/2007</t>
+  </si>
+  <si>
+    <t>Not Really Texas Cityk</t>
+  </si>
+  <si>
+    <t>This place is not really in Texas City, but Hitchcock.  It's several miles to downtown TC.  Hard to believe it's the #2 hotel in TC considering others available there.  It's a standard Fairfield, easily accessible from the interstate.  Staff was very outgoing and helpful.  However, the place has a very strong sweet odor - cleaning materials?</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r10776702-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
+  </si>
+  <si>
+    <t>10776702</t>
+  </si>
+  <si>
+    <t>11/12/2007</t>
+  </si>
+  <si>
+    <t>Okay-would stay again</t>
+  </si>
+  <si>
+    <t>Stayed with 2 grandkids prior to our cruise in Galveston.  Only 14 miles to Galveston for 1/2 the price.  When we checked, we were told someone else had come into the hotel that morning and cancelled our reservation, so now the rate would be more.  I stated that was impossible, as we had traveled 400 miles that day.  When I produced the copy of the reservation from their web site, she quickly found the reservation.The room was clean.  The pool and hot tub were clean.  There was only 2 towels in the room, so had to go to the front desk.  The next morning, the day shift front desk person, was very nice and apologized.  Breakfast was included and very good.  Waffles, bagels, fresh fruit, cereal.Overall, would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>Stayed with 2 grandkids prior to our cruise in Galveston.  Only 14 miles to Galveston for 1/2 the price.  When we checked, we were told someone else had come into the hotel that morning and cancelled our reservation, so now the rate would be more.  I stated that was impossible, as we had traveled 400 miles that day.  When I produced the copy of the reservation from their web site, she quickly found the reservation.The room was clean.  The pool and hot tub were clean.  There was only 2 towels in the room, so had to go to the front desk.  The next morning, the day shift front desk person, was very nice and apologized.  Breakfast was included and very good.  Waffles, bagels, fresh fruit, cereal.Overall, would stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56761-d106252-r8230079-Fairfield_Inn_Suites_Texas_City-Texas_City_Texas.html</t>
@@ -2206,7 +3192,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -2216,17 +3202,25 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -2242,7 +3236,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -2251,39 +3245,47 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2299,7 +3301,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2308,25 +3310,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2338,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="s">
         <v>68</v>
@@ -2381,13 +3383,13 @@
         <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2398,10 +3400,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2417,7 +3423,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2426,25 +3432,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2455,10 +3461,14 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2474,7 +3484,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2483,34 +3493,34 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>3</v>
@@ -2519,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -2541,7 +3551,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2550,25 +3560,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2580,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -2602,7 +3612,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2611,22 +3621,22 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
@@ -2641,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2663,7 +3673,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2672,25 +3682,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2702,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2724,7 +3734,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2733,47 +3743,49 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2789,7 +3801,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2798,46 +3810,36 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>127</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
         <v>3</v>
       </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
         <v>130</v>
@@ -2880,28 +3882,32 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
         <v>137</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>138</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2917,54 +3923,52 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>142</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>143</v>
       </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2980,7 +3984,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2989,25 +3993,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3018,10 +4022,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -3037,7 +4045,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -3046,25 +4054,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3075,10 +4083,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -3094,7 +4106,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -3103,31 +4115,31 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -3137,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -3159,7 +4171,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3168,43 +4180,47 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -3220,7 +4236,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3229,43 +4245,47 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -3281,7 +4301,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3290,43 +4310,49 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="s">
-        <v>187</v>
-      </c>
-      <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -3342,7 +4368,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3351,49 +4377,43 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -3409,7 +4429,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3418,22 +4438,22 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>202</v>
-      </c>
-      <c r="K22" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>196</v>
       </c>
       <c r="O22" t="s">
         <v>52</v>
@@ -3447,14 +4467,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>205</v>
-      </c>
-      <c r="X22" t="s">
-        <v>206</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -3470,7 +4486,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3479,22 +4495,26 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3504,10 +4524,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>216</v>
+      </c>
+      <c r="X23" t="s">
+        <v>217</v>
+      </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
@@ -3523,7 +4547,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3532,34 +4556,34 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3570,7 +4594,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -3586,7 +4610,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3595,43 +4619,39 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -3647,7 +4667,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3656,43 +4676,39 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
@@ -3708,7 +4724,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3717,49 +4733,39 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
         <v>234</v>
       </c>
-      <c r="J27" t="s">
-        <v>235</v>
-      </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>239</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
         <v>240</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3775,34 +4781,34 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
         <v>242</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>243</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>244</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>245</v>
-      </c>
-      <c r="L28" t="s">
-        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3814,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
         <v>247</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>248</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -3836,54 +4842,56 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
         <v>250</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>251</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>252</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>253</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>254</v>
       </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>255</v>
-      </c>
       <c r="O29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
@@ -3899,7 +4907,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3908,45 +4916,43 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -3962,7 +4968,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3971,39 +4977,43 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -4019,7 +5029,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -4028,34 +5038,34 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
       </c>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>4</v>
@@ -4063,12 +5073,8 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>275</v>
-      </c>
-      <c r="X32" t="s">
-        <v>276</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
         <v>277</v>
       </c>
@@ -4086,54 +5092,48 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>278</v>
       </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="s">
-        <v>279</v>
-      </c>
-      <c r="J33" t="s">
-        <v>280</v>
-      </c>
-      <c r="K33" t="s">
-        <v>281</v>
-      </c>
-      <c r="L33" t="s">
-        <v>282</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>283</v>
-      </c>
       <c r="O33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
@@ -4170,33 +5170,31 @@
         <v>288</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
         <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>290</v>
+      </c>
+      <c r="X34" t="s">
+        <v>291</v>
+      </c>
       <c r="Y34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
@@ -4212,7 +5210,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4221,45 +5219,49 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>300</v>
+      </c>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
@@ -4275,7 +5277,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4284,49 +5286,43 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="X36" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
@@ -4342,7 +5338,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4351,49 +5347,49 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
@@ -4409,7 +5405,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4418,35 +5414,31 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>315</v>
       </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>316</v>
-      </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>5</v>
       </c>
@@ -4460,7 +5452,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
@@ -4476,7 +5468,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4485,53 +5477,35 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="J39" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="s">
-        <v>316</v>
-      </c>
-      <c r="O39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>322</v>
-      </c>
-      <c r="X39" t="s">
-        <v>323</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40">
@@ -4547,7 +5521,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4556,49 +5530,43 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J40" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>331</v>
-      </c>
-      <c r="X40" t="s">
-        <v>332</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
         <v>333</v>
       </c>
@@ -4616,7 +5584,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4625,53 +5593,43 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>340</v>
-      </c>
-      <c r="X41" t="s">
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
         <v>341</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="42">
@@ -4687,58 +5645,52 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
         <v>343</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>344</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>345</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>346</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>116</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
         <v>347</v>
       </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>339</v>
-      </c>
-      <c r="O42" t="s">
-        <v>59</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
-      <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="X42" t="s">
+        <v>348</v>
+      </c>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43">
@@ -4754,7 +5706,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4763,43 +5715,45 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>353</v>
-      </c>
-      <c r="X43" t="s">
-        <v>354</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
@@ -4815,7 +5769,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4824,43 +5778,43 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
         <v>362</v>
-      </c>
-      <c r="X44" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="45">
@@ -4876,56 +5830,56 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
         <v>365</v>
       </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>366</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>367</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>368</v>
       </c>
-      <c r="L45" t="s">
-        <v>369</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>370</v>
-      </c>
       <c r="O45" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>369</v>
+      </c>
+      <c r="X45" t="s">
+        <v>370</v>
+      </c>
       <c r="Y45" t="s">
         <v>371</v>
       </c>
@@ -4964,33 +5918,31 @@
         <v>376</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>368</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>4</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>377</v>
+      </c>
+      <c r="X46" t="s">
+        <v>378</v>
+      </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47">
@@ -5006,7 +5958,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -5015,31 +5967,31 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+      <c r="N47" t="s">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
         <v>5</v>
       </c>
@@ -5053,7 +6005,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
@@ -5069,7 +6021,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5078,49 +6030,47 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J48" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
         <v>385</v>
       </c>
-      <c r="L48" t="s">
-        <v>386</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>387</v>
-      </c>
       <c r="O48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>391</v>
+      </c>
+      <c r="X48" t="s">
+        <v>392</v>
+      </c>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49">
@@ -5136,7 +6086,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5145,37 +6095,37 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="J49" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K49" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+      <c r="N49" t="s">
+        <v>399</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5183,7 +6133,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50">
@@ -5199,7 +6149,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5208,49 +6158,45 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>404</v>
+      </c>
+      <c r="X50" t="s">
+        <v>405</v>
+      </c>
       <c r="Y50" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
@@ -5266,7 +6212,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5275,49 +6221,39 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J51" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K51" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52">
@@ -5333,7 +6269,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5342,49 +6278,45 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="J52" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K52" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L52" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>418</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
         <v>4</v>
       </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>412</v>
-      </c>
-      <c r="X52" t="s">
-        <v>413</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53">
@@ -5400,7 +6332,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5409,53 +6341,45 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>421</v>
-      </c>
-      <c r="X53" t="s">
-        <v>422</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54">
@@ -5471,7 +6395,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5480,37 +6404,33 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="O54" t="s">
-        <v>429</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
       </c>
-      <c r="Q54" t="n">
-        <v>3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5519,10 +6439,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>432</v>
+      </c>
+      <c r="X54" t="s">
+        <v>433</v>
+      </c>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55">
@@ -5538,7 +6462,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5547,49 +6471,45 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>440</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>436</v>
-      </c>
-      <c r="X55" t="s">
-        <v>437</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56">
@@ -5605,7 +6525,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5614,38 +6534,34 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
         <v>4</v>
       </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5656,7 +6572,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
@@ -5672,7 +6588,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5681,49 +6597,49 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J57" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K57" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R57" t="s"/>
       <c r="S57" t="n">
         <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>453</v>
+      </c>
+      <c r="X57" t="s">
+        <v>454</v>
+      </c>
       <c r="Y57" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58">
@@ -5739,7 +6655,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5748,45 +6664,39 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="J58" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s"/>
       <c r="O58" t="s"/>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>4</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>461</v>
+      </c>
+      <c r="X58" t="s">
+        <v>462</v>
+      </c>
       <c r="Y58" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59">
@@ -5802,7 +6712,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5811,38 +6721,34 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="J59" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K59" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="O59" t="s">
         <v>52</v>
       </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
         <v>5</v>
@@ -5853,7 +6759,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60">
@@ -5869,7 +6775,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5878,49 +6784,49 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="J60" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K60" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L60" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="O60" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>476</v>
+      </c>
+      <c r="X60" t="s">
+        <v>477</v>
+      </c>
       <c r="Y60" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61">
@@ -5936,31 +6842,31 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
+        <v>479</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>480</v>
+      </c>
+      <c r="J61" t="s">
+        <v>481</v>
+      </c>
+      <c r="K61" t="s">
+        <v>482</v>
+      </c>
+      <c r="L61" t="s">
+        <v>483</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
         <v>469</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" t="s">
-        <v>470</v>
-      </c>
-      <c r="J61" t="s">
-        <v>471</v>
-      </c>
-      <c r="K61" t="s">
-        <v>472</v>
-      </c>
-      <c r="L61" t="s">
-        <v>473</v>
-      </c>
-      <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s">
-        <v>474</v>
       </c>
       <c r="O61" t="s">
         <v>52</v>
@@ -5969,17 +6875,17 @@
         <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
         <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5987,7 +6893,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62">
@@ -6003,7 +6909,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -6012,33 +6918,37 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="J62" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K62" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L62" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
+      <c r="N62" t="s">
+        <v>469</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
@@ -6050,7 +6960,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63">
@@ -6066,7 +6976,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6075,37 +6985,41 @@
         <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="J63" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K63" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L63" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="O63" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6113,7 +7027,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64">
@@ -6129,7 +7043,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -6138,31 +7052,35 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J64" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K64" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
       </c>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
       <c r="S64" t="n">
         <v>5</v>
       </c>
@@ -6176,7 +7094,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65">
@@ -6192,7 +7110,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G65" t="s">
         <v>45</v>
@@ -6201,37 +7119,37 @@
         <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="J65" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K65" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L65" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
         <v>500</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="P65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
@@ -6240,10 +7158,14 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>506</v>
+      </c>
+      <c r="X65" t="s">
+        <v>507</v>
+      </c>
       <c r="Y65" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66">
@@ -6259,7 +7181,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G66" t="s">
         <v>45</v>
@@ -6268,49 +7190,51 @@
         <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="J66" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K66" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L66" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="O66" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R66" t="s"/>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>515</v>
+      </c>
+      <c r="X66" t="s">
+        <v>516</v>
+      </c>
       <c r="Y66" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67">
@@ -6326,7 +7250,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G67" t="s">
         <v>45</v>
@@ -6335,49 +7259,43 @@
         <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="J67" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="K67" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="L67" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="O67" t="s">
-        <v>111</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>5</v>
-      </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="n">
-        <v>5</v>
-      </c>
+      <c r="U67" t="s"/>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>524</v>
+      </c>
+      <c r="X67" t="s">
+        <v>525</v>
+      </c>
       <c r="Y67" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68">
@@ -6393,7 +7311,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -6402,49 +7320,53 @@
         <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="J68" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="K68" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="L68" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>523</v>
+      </c>
+      <c r="O68" t="s">
+        <v>116</v>
+      </c>
+      <c r="P68" t="n">
         <v>3</v>
       </c>
-      <c r="N68" t="s">
-        <v>518</v>
-      </c>
-      <c r="O68" t="s">
-        <v>52</v>
-      </c>
-      <c r="P68" t="n">
-        <v>4</v>
-      </c>
       <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
         <v>3</v>
       </c>
-      <c r="R68" t="n">
-        <v>4</v>
-      </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>532</v>
+      </c>
+      <c r="X68" t="s">
+        <v>533</v>
+      </c>
       <c r="Y68" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69">
@@ -6460,7 +7382,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -6469,31 +7391,31 @@
         <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="J69" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="K69" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="L69" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="O69" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
         <v>3</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>4</v>
       </c>
       <c r="R69" t="n">
         <v>3</v>
@@ -6503,15 +7425,19 @@
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>541</v>
+      </c>
+      <c r="X69" t="s">
+        <v>542</v>
+      </c>
       <c r="Y69" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70">
@@ -6527,7 +7453,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="G70" t="s">
         <v>45</v>
@@ -6536,47 +7462,49 @@
         <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="J70" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="K70" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="L70" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>540</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
         <v>3</v>
       </c>
-      <c r="N70" t="s">
-        <v>524</v>
-      </c>
-      <c r="O70" t="s">
-        <v>59</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4</v>
-      </c>
       <c r="Q70" t="n">
         <v>4</v>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S70" t="n">
         <v>4</v>
       </c>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71">
@@ -6592,7 +7520,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="G71" t="s">
         <v>45</v>
@@ -6601,49 +7529,43 @@
         <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="J71" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="K71" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="L71" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O71" t="s">
-        <v>59</v>
-      </c>
-      <c r="P71" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>4</v>
-      </c>
-      <c r="R71" t="n">
-        <v>4</v>
-      </c>
-      <c r="S71" t="n">
-        <v>4</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
-      <c r="U71" t="n">
-        <v>5</v>
-      </c>
+      <c r="U71" t="s"/>
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
+      <c r="W71" t="s">
+        <v>554</v>
+      </c>
+      <c r="X71" t="s">
+        <v>555</v>
+      </c>
       <c r="Y71" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72">
@@ -6659,7 +7581,7 @@
         <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="G72" t="s">
         <v>45</v>
@@ -6668,25 +7590,25 @@
         <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="J72" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="K72" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="L72" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="O72" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6707,10 +7629,14 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
+      <c r="W72" t="s">
+        <v>563</v>
+      </c>
+      <c r="X72" t="s">
+        <v>564</v>
+      </c>
       <c r="Y72" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73">
@@ -6726,7 +7652,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -6735,39 +7661,37 @@
         <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="J73" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="K73" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="L73" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
-      </c>
-      <c r="N73" t="s">
-        <v>549</v>
-      </c>
-      <c r="O73" t="s">
-        <v>81</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
       <c r="P73" t="n">
         <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>3</v>
-      </c>
-      <c r="R73" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
       <c r="S73" t="n">
         <v>5</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6775,7 +7699,3163 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>548</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>571</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>572</v>
+      </c>
+      <c r="J74" t="s">
+        <v>573</v>
+      </c>
+      <c r="K74" t="s">
+        <v>574</v>
+      </c>
+      <c r="L74" t="s">
+        <v>575</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>576</v>
+      </c>
+      <c r="O74" t="s">
+        <v>116</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>577</v>
+      </c>
+      <c r="X74" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>580</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>581</v>
+      </c>
+      <c r="J75" t="s">
+        <v>582</v>
+      </c>
+      <c r="K75" t="s">
+        <v>583</v>
+      </c>
+      <c r="L75" t="s">
+        <v>584</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>585</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>587</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>588</v>
+      </c>
+      <c r="J76" t="s">
+        <v>589</v>
+      </c>
+      <c r="K76" t="s">
+        <v>590</v>
+      </c>
+      <c r="L76" t="s">
+        <v>591</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>592</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>593</v>
+      </c>
+      <c r="J77" t="s">
+        <v>594</v>
+      </c>
+      <c r="K77" t="s">
+        <v>595</v>
+      </c>
+      <c r="L77" t="s">
+        <v>596</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>585</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>597</v>
+      </c>
+      <c r="X77" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>600</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>601</v>
+      </c>
+      <c r="J78" t="s">
+        <v>602</v>
+      </c>
+      <c r="K78" t="s">
+        <v>603</v>
+      </c>
+      <c r="L78" t="s">
+        <v>604</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>585</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>605</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>606</v>
+      </c>
+      <c r="J79" t="s">
+        <v>607</v>
+      </c>
+      <c r="K79" t="s">
+        <v>608</v>
+      </c>
+      <c r="L79" t="s">
+        <v>609</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>610</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>611</v>
+      </c>
+      <c r="J80" t="s">
+        <v>612</v>
+      </c>
+      <c r="K80" t="s">
+        <v>613</v>
+      </c>
+      <c r="L80" t="s">
+        <v>614</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>615</v>
+      </c>
+      <c r="O80" t="s">
+        <v>67</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>616</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>617</v>
+      </c>
+      <c r="J81" t="s">
+        <v>618</v>
+      </c>
+      <c r="K81" t="s">
+        <v>619</v>
+      </c>
+      <c r="L81" t="s">
+        <v>620</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>621</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>622</v>
+      </c>
+      <c r="J82" t="s">
+        <v>623</v>
+      </c>
+      <c r="K82" t="s">
+        <v>624</v>
+      </c>
+      <c r="L82" t="s">
+        <v>625</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>626</v>
+      </c>
+      <c r="O82" t="s">
+        <v>67</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>627</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>628</v>
+      </c>
+      <c r="J83" t="s">
+        <v>629</v>
+      </c>
+      <c r="K83" t="s">
+        <v>630</v>
+      </c>
+      <c r="L83" t="s">
+        <v>631</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>626</v>
+      </c>
+      <c r="O83" t="s">
+        <v>116</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>632</v>
+      </c>
+      <c r="X83" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>635</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>636</v>
+      </c>
+      <c r="J84" t="s">
+        <v>637</v>
+      </c>
+      <c r="K84" t="s">
+        <v>638</v>
+      </c>
+      <c r="L84" t="s">
+        <v>639</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>626</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>641</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>642</v>
+      </c>
+      <c r="J85" t="s">
+        <v>643</v>
+      </c>
+      <c r="K85" t="s">
+        <v>644</v>
+      </c>
+      <c r="L85" t="s">
+        <v>645</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>646</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>648</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>649</v>
+      </c>
+      <c r="J86" t="s">
+        <v>650</v>
+      </c>
+      <c r="K86" t="s">
+        <v>651</v>
+      </c>
+      <c r="L86" t="s">
+        <v>652</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>653</v>
+      </c>
+      <c r="X86" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>656</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>657</v>
+      </c>
+      <c r="J87" t="s">
+        <v>658</v>
+      </c>
+      <c r="K87" t="s">
+        <v>659</v>
+      </c>
+      <c r="L87" t="s">
+        <v>660</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>661</v>
+      </c>
+      <c r="O87" t="s">
+        <v>116</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>662</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>663</v>
+      </c>
+      <c r="J88" t="s">
+        <v>664</v>
+      </c>
+      <c r="K88" t="s">
+        <v>665</v>
+      </c>
+      <c r="L88" t="s">
+        <v>666</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>667</v>
+      </c>
+      <c r="O88" t="s">
+        <v>116</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>668</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>669</v>
+      </c>
+      <c r="J89" t="s">
+        <v>670</v>
+      </c>
+      <c r="K89" t="s">
+        <v>671</v>
+      </c>
+      <c r="L89" t="s">
+        <v>672</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>673</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>674</v>
+      </c>
+      <c r="X89" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>677</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>678</v>
+      </c>
+      <c r="J90" t="s">
+        <v>679</v>
+      </c>
+      <c r="K90" t="s">
+        <v>680</v>
+      </c>
+      <c r="L90" t="s">
+        <v>681</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>673</v>
+      </c>
+      <c r="O90" t="s">
+        <v>177</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>683</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>684</v>
+      </c>
+      <c r="J91" t="s">
+        <v>685</v>
+      </c>
+      <c r="K91" t="s">
+        <v>686</v>
+      </c>
+      <c r="L91" t="s">
+        <v>687</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>688</v>
+      </c>
+      <c r="X91" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>691</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>692</v>
+      </c>
+      <c r="J92" t="s">
+        <v>693</v>
+      </c>
+      <c r="K92" t="s">
+        <v>694</v>
+      </c>
+      <c r="L92" t="s">
+        <v>695</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>696</v>
+      </c>
+      <c r="O92" t="s">
+        <v>116</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>698</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>699</v>
+      </c>
+      <c r="J93" t="s">
+        <v>700</v>
+      </c>
+      <c r="K93" t="s">
+        <v>701</v>
+      </c>
+      <c r="L93" t="s">
+        <v>702</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>703</v>
+      </c>
+      <c r="O93" t="s">
+        <v>116</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>705</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>706</v>
+      </c>
+      <c r="J94" t="s">
+        <v>707</v>
+      </c>
+      <c r="K94" t="s">
+        <v>708</v>
+      </c>
+      <c r="L94" t="s">
+        <v>709</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>703</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>710</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>711</v>
+      </c>
+      <c r="J95" t="s">
+        <v>712</v>
+      </c>
+      <c r="K95" t="s">
+        <v>713</v>
+      </c>
+      <c r="L95" t="s">
+        <v>714</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>715</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>716</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>717</v>
+      </c>
+      <c r="J96" t="s">
+        <v>718</v>
+      </c>
+      <c r="K96" t="s">
+        <v>719</v>
+      </c>
+      <c r="L96" t="s">
+        <v>720</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>721</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>722</v>
+      </c>
+      <c r="J97" t="s">
+        <v>723</v>
+      </c>
+      <c r="K97" t="s">
+        <v>724</v>
+      </c>
+      <c r="L97" t="s">
+        <v>725</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>726</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>727</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>728</v>
+      </c>
+      <c r="J98" t="s">
+        <v>729</v>
+      </c>
+      <c r="K98" t="s">
+        <v>730</v>
+      </c>
+      <c r="L98" t="s">
+        <v>731</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>732</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>733</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>734</v>
+      </c>
+      <c r="J99" t="s">
+        <v>735</v>
+      </c>
+      <c r="K99" t="s">
+        <v>736</v>
+      </c>
+      <c r="L99" t="s">
+        <v>737</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>738</v>
+      </c>
+      <c r="O99" t="s">
+        <v>67</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>740</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>741</v>
+      </c>
+      <c r="J100" t="s">
+        <v>742</v>
+      </c>
+      <c r="K100" t="s">
+        <v>743</v>
+      </c>
+      <c r="L100" t="s">
+        <v>744</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>745</v>
+      </c>
+      <c r="O100" t="s">
+        <v>116</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>746</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>747</v>
+      </c>
+      <c r="J101" t="s">
+        <v>748</v>
+      </c>
+      <c r="K101" t="s">
+        <v>749</v>
+      </c>
+      <c r="L101" t="s">
+        <v>750</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>751</v>
+      </c>
+      <c r="O101" t="s">
+        <v>67</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>753</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>754</v>
+      </c>
+      <c r="J102" t="s">
+        <v>755</v>
+      </c>
+      <c r="K102" t="s">
+        <v>756</v>
+      </c>
+      <c r="L102" t="s">
+        <v>757</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>758</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>760</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>761</v>
+      </c>
+      <c r="J103" t="s">
+        <v>762</v>
+      </c>
+      <c r="K103" t="s">
+        <v>763</v>
+      </c>
+      <c r="L103" t="s">
+        <v>764</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>758</v>
+      </c>
+      <c r="O103" t="s">
+        <v>67</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>765</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>766</v>
+      </c>
+      <c r="J104" t="s">
+        <v>767</v>
+      </c>
+      <c r="K104" t="s">
+        <v>768</v>
+      </c>
+      <c r="L104" t="s">
+        <v>769</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>771</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>772</v>
+      </c>
+      <c r="J105" t="s">
+        <v>773</v>
+      </c>
+      <c r="K105" t="s">
+        <v>774</v>
+      </c>
+      <c r="L105" t="s">
+        <v>775</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>776</v>
+      </c>
+      <c r="O105" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>778</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>779</v>
+      </c>
+      <c r="J106" t="s">
+        <v>780</v>
+      </c>
+      <c r="K106" t="s">
+        <v>781</v>
+      </c>
+      <c r="L106" t="s">
+        <v>782</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>783</v>
+      </c>
+      <c r="O106" t="s">
+        <v>52</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>784</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>785</v>
+      </c>
+      <c r="J107" t="s">
+        <v>786</v>
+      </c>
+      <c r="K107" t="s">
+        <v>787</v>
+      </c>
+      <c r="L107" t="s">
+        <v>788</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>789</v>
+      </c>
+      <c r="O107" t="s">
+        <v>52</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>790</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>791</v>
+      </c>
+      <c r="J108" t="s">
+        <v>792</v>
+      </c>
+      <c r="K108" t="s">
+        <v>793</v>
+      </c>
+      <c r="L108" t="s">
+        <v>794</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>795</v>
+      </c>
+      <c r="O108" t="s">
+        <v>67</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>796</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>797</v>
+      </c>
+      <c r="J109" t="s">
+        <v>798</v>
+      </c>
+      <c r="K109" t="s">
+        <v>799</v>
+      </c>
+      <c r="L109" t="s">
+        <v>800</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>801</v>
+      </c>
+      <c r="O109" t="s">
+        <v>67</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>802</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s">
+        <v>803</v>
+      </c>
+      <c r="J110" t="s">
+        <v>804</v>
+      </c>
+      <c r="K110" t="s">
+        <v>805</v>
+      </c>
+      <c r="L110" t="s">
+        <v>806</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>807</v>
+      </c>
+      <c r="O110" t="s">
+        <v>116</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s">
+        <v>808</v>
+      </c>
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" t="s">
+        <v>809</v>
+      </c>
+      <c r="J111" t="s">
+        <v>810</v>
+      </c>
+      <c r="K111" t="s">
+        <v>811</v>
+      </c>
+      <c r="L111" t="s">
+        <v>812</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>813</v>
+      </c>
+      <c r="O111" t="s">
+        <v>161</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>814</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" t="s">
+        <v>815</v>
+      </c>
+      <c r="J112" t="s">
+        <v>816</v>
+      </c>
+      <c r="K112" t="s">
+        <v>817</v>
+      </c>
+      <c r="L112" t="s">
+        <v>818</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>819</v>
+      </c>
+      <c r="O112" t="s">
+        <v>116</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s">
+        <v>820</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" t="s">
+        <v>821</v>
+      </c>
+      <c r="J113" t="s">
+        <v>822</v>
+      </c>
+      <c r="K113" t="s">
+        <v>823</v>
+      </c>
+      <c r="L113" t="s">
+        <v>824</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>825</v>
+      </c>
+      <c r="O113" t="s">
+        <v>52</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
+        <v>826</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" t="s">
+        <v>827</v>
+      </c>
+      <c r="J114" t="s">
+        <v>828</v>
+      </c>
+      <c r="K114" t="s">
+        <v>829</v>
+      </c>
+      <c r="L114" t="s">
+        <v>830</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s">
+        <v>831</v>
+      </c>
+      <c r="O114" t="s">
+        <v>67</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s">
+        <v>832</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s">
+        <v>833</v>
+      </c>
+      <c r="J115" t="s">
+        <v>834</v>
+      </c>
+      <c r="K115" t="s">
+        <v>835</v>
+      </c>
+      <c r="L115" t="s">
+        <v>836</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>837</v>
+      </c>
+      <c r="O115" t="s">
+        <v>52</v>
+      </c>
+      <c r="P115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s">
+        <v>838</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" t="s">
+        <v>839</v>
+      </c>
+      <c r="J116" t="s">
+        <v>840</v>
+      </c>
+      <c r="K116" t="s">
+        <v>841</v>
+      </c>
+      <c r="L116" t="s">
+        <v>842</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>837</v>
+      </c>
+      <c r="O116" t="s">
+        <v>52</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s">
+        <v>844</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s">
+        <v>46</v>
+      </c>
+      <c r="I117" t="s">
+        <v>845</v>
+      </c>
+      <c r="J117" t="s">
+        <v>846</v>
+      </c>
+      <c r="K117" t="s">
+        <v>847</v>
+      </c>
+      <c r="L117" t="s">
+        <v>848</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="s">
+        <v>849</v>
+      </c>
+      <c r="O117" t="s">
+        <v>67</v>
+      </c>
+      <c r="P117" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>4</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" t="s">
+        <v>850</v>
+      </c>
+      <c r="G118" t="s">
+        <v>45</v>
+      </c>
+      <c r="H118" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" t="s">
+        <v>851</v>
+      </c>
+      <c r="J118" t="s">
+        <v>852</v>
+      </c>
+      <c r="K118" t="s">
+        <v>853</v>
+      </c>
+      <c r="L118" t="s">
+        <v>854</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="s">
+        <v>855</v>
+      </c>
+      <c r="O118" t="s">
+        <v>52</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>3</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" t="s">
+        <v>857</v>
+      </c>
+      <c r="G119" t="s">
+        <v>45</v>
+      </c>
+      <c r="H119" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" t="s">
+        <v>858</v>
+      </c>
+      <c r="J119" t="s">
+        <v>859</v>
+      </c>
+      <c r="K119" t="s">
+        <v>860</v>
+      </c>
+      <c r="L119" t="s">
+        <v>861</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>862</v>
+      </c>
+      <c r="O119" t="s">
+        <v>52</v>
+      </c>
+      <c r="P119" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>4</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4</v>
+      </c>
+      <c r="S119" t="n">
+        <v>4</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" t="s">
+        <v>863</v>
+      </c>
+      <c r="G120" t="s">
+        <v>45</v>
+      </c>
+      <c r="H120" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" t="s">
+        <v>864</v>
+      </c>
+      <c r="J120" t="s">
+        <v>865</v>
+      </c>
+      <c r="K120" t="s">
+        <v>866</v>
+      </c>
+      <c r="L120" t="s">
+        <v>867</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>868</v>
+      </c>
+      <c r="O120" t="s">
+        <v>116</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>32969</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" t="s">
+        <v>870</v>
+      </c>
+      <c r="G121" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" t="s">
+        <v>46</v>
+      </c>
+      <c r="I121" t="s">
+        <v>871</v>
+      </c>
+      <c r="J121" t="s">
+        <v>872</v>
+      </c>
+      <c r="K121" t="s">
+        <v>873</v>
+      </c>
+      <c r="L121" t="s">
+        <v>874</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+      <c r="N121" t="s">
+        <v>875</v>
+      </c>
+      <c r="O121" t="s">
+        <v>116</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
+      <c r="R121" t="s"/>
+      <c r="S121" t="n">
+        <v>5</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>4</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
